--- a/output/S7_Helper_Features_Sample.xlsx
+++ b/output/S7_Helper_Features_Sample.xlsx
@@ -500,14 +500,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.9319132081189134</v>
+        <v>-0.3203757854587314</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9319132081189134</v>
+        <v>0.3203757854587314</v>
       </c>
     </row>
     <row r="3">
@@ -530,14 +530,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PX_LAST_CS</t>
+          <t>1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.930765932396538</v>
+        <v>-0.2683121097901571</v>
       </c>
       <c r="H3" t="n">
-        <v>0.930765932396538</v>
+        <v>0.2683121097901571</v>
       </c>
     </row>
     <row r="4">
@@ -560,14 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trailing EPS_CS</t>
+          <t>120MA_CS_60m</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5570401737103157</v>
+        <v>0.2680384945332966</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5570401737103157</v>
+        <v>0.2680384945332966</v>
       </c>
     </row>
     <row r="5">
@@ -590,14 +590,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Current Account_CS</t>
+          <t>Tot Return Index _CS_60m</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-0.5154621744075096</v>
+        <v>0.2517937373369846</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5154621744075096</v>
+        <v>0.2517937373369846</v>
       </c>
     </row>
     <row r="6">
@@ -620,14 +620,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>120MA_CS_3m</t>
+          <t>PX_LAST_CS_60m</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.506822184960518</v>
+        <v>0.2455146112106445</v>
       </c>
       <c r="H6" t="n">
-        <v>0.506822184960518</v>
+        <v>0.2455146112106445</v>
       </c>
     </row>
     <row r="7">
@@ -650,14 +650,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>360 Day Vol_CS</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5050286161027669</v>
+        <v>0.2370847147908191</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5050286161027669</v>
+        <v>0.2370847147908191</v>
       </c>
     </row>
     <row r="8">
@@ -680,14 +680,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS_3m</t>
+          <t>3MTR_CS_60m</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.4755512407757155</v>
+        <v>0.2245721107699106</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4755512407757155</v>
+        <v>0.2245721107699106</v>
       </c>
     </row>
     <row r="9">
@@ -710,14 +710,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10Yr Bond_CS</t>
+          <t>3MTR_TS_60m</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-0.4719686134459459</v>
+        <v>0.2222633320934672</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4719686134459459</v>
+        <v>0.2222633320934672</v>
       </c>
     </row>
     <row r="10">
@@ -740,14 +740,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PX_LAST_CS_3m</t>
+          <t>120MA Signal_CS_60m</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.4707832246939979</v>
+        <v>0.2160874489216398</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4707832246939979</v>
+        <v>0.2160874489216398</v>
       </c>
     </row>
     <row r="11">
@@ -770,14 +770,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Currency_CS</t>
+          <t>20 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-0.4669106210850667</v>
+        <v>0.2105240687945812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4669106210850667</v>
+        <v>0.2105240687945812</v>
       </c>
     </row>
     <row r="12">
@@ -800,14 +800,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20 Day Vol_TS_3m</t>
+          <t>3MTR_CS_60m</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5983738588827965</v>
+        <v>0.3067927560445364</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5983738588827965</v>
+        <v>0.3067927560445364</v>
       </c>
     </row>
     <row r="13">
@@ -830,14 +830,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>20 Day Vol_CS</t>
+          <t>Inflation_CS_60m</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4925016812261351</v>
+        <v>0.2952966654044806</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4925016812261351</v>
+        <v>0.2952966654044806</v>
       </c>
     </row>
     <row r="14">
@@ -860,14 +860,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Operating Margin_TS</t>
+          <t>20 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-0.3882019862109438</v>
+        <v>0.2900943526990378</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3882019862109438</v>
+        <v>0.2900943526990378</v>
       </c>
     </row>
     <row r="15">
@@ -890,14 +890,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Agriculture_CS_12m</t>
+          <t>Gold_CS_60m</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-0.3397513337007323</v>
+        <v>-0.2897432333912351</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3397513337007323</v>
+        <v>0.2897432333912351</v>
       </c>
     </row>
     <row r="16">
@@ -920,14 +920,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Current Account_CS</t>
+          <t>Oil_CS_60m</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-0.329551708077575</v>
+        <v>-0.2815885947928877</v>
       </c>
       <c r="H16" t="n">
-        <v>0.329551708077575</v>
+        <v>0.2815885947928877</v>
       </c>
     </row>
     <row r="17">
@@ -950,14 +950,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3MTR_CS_12m</t>
+          <t>20 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.3256599357201228</v>
+        <v>0.2806157578507744</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3256599357201228</v>
+        <v>0.2806157578507744</v>
       </c>
     </row>
     <row r="18">
@@ -980,14 +980,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oil_CS_12m</t>
+          <t>Copper_CS_60m</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-0.324531759934426</v>
+        <v>-0.2748548618062572</v>
       </c>
       <c r="H18" t="n">
-        <v>0.324531759934426</v>
+        <v>0.2748548618062572</v>
       </c>
     </row>
     <row r="19">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gold_CS_12m</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-0.322784713691449</v>
+        <v>-0.2728405081782011</v>
       </c>
       <c r="H19" t="n">
-        <v>0.322784713691449</v>
+        <v>0.2728405081782011</v>
       </c>
     </row>
     <row r="20">
@@ -1040,14 +1040,14 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Copper_CS_12m</t>
+          <t>Agriculture_CS_60m</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-0.3192727429244238</v>
+        <v>-0.2695496698765656</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3192727429244238</v>
+        <v>0.2695496698765656</v>
       </c>
     </row>
     <row r="21">
@@ -1070,14 +1070,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Inflation_CS_12m</t>
+          <t>Best PE _TS_60m</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.3108028610626385</v>
+        <v>-0.2689625151627683</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3108028610626385</v>
+        <v>0.2689625151627683</v>
       </c>
     </row>
     <row r="22">
@@ -1100,14 +1100,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>360 Day Vol_TS_3m</t>
+          <t>20 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5808079852316743</v>
+        <v>0.3209557233076897</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5808079852316743</v>
+        <v>0.3209557233076897</v>
       </c>
     </row>
     <row r="23">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Shiller PE_TS</t>
+          <t>360 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4764428693407495</v>
+        <v>0.3157822377087413</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4764428693407495</v>
+        <v>0.3157822377087413</v>
       </c>
     </row>
     <row r="24">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Current Account_CS</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-0.4473015787926879</v>
+        <v>-0.3050470365838805</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4473015787926879</v>
+        <v>0.3050470365838805</v>
       </c>
     </row>
     <row r="25">
@@ -1190,14 +1190,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>P2P_TS</t>
+          <t>20 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-0.4244148702955495</v>
+        <v>0.2922090662362333</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4244148702955495</v>
+        <v>0.2922090662362333</v>
       </c>
     </row>
     <row r="26">
@@ -1220,14 +1220,14 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12-1MTR_TS</t>
+          <t>Shiller PE_TS_60m</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-0.4213580276914703</v>
+        <v>0.2153670290672627</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4213580276914703</v>
+        <v>0.2153670290672627</v>
       </c>
     </row>
     <row r="27">
@@ -1250,14 +1250,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Best PE _TS</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.4172726436772309</v>
+        <v>-0.2050445847869579</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4172726436772309</v>
+        <v>0.2050445847869579</v>
       </c>
     </row>
     <row r="28">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Currency 12_CS</t>
+          <t>Trailing EPS 36_CS_60m</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3963374583937506</v>
+        <v>0.1867471536900153</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3963374583937506</v>
+        <v>0.1867471536900153</v>
       </c>
     </row>
     <row r="29">
@@ -1310,14 +1310,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10Yr Bond 12_CS</t>
+          <t>3MTR_CS_60m</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-0.3799729537136022</v>
+        <v>0.1700637969885215</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3799729537136022</v>
+        <v>0.1700637969885215</v>
       </c>
     </row>
     <row r="30">
@@ -1340,14 +1340,14 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Best Price Sales_CS</t>
+          <t>Trailing EPS 36_TS_60m</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.3765859738718669</v>
+        <v>0.1695978059586995</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3765859738718669</v>
+        <v>0.1695978059586995</v>
       </c>
     </row>
     <row r="31">
@@ -1370,14 +1370,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Currency_TS</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3638831155441928</v>
+        <v>-0.1497861351700554</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3638831155441928</v>
+        <v>0.1497861351700554</v>
       </c>
     </row>
     <row r="32">
@@ -1400,14 +1400,14 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_12m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="33">
@@ -1430,14 +1430,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Best Cash Flow_TS_12m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="34">
@@ -1460,14 +1460,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Best Div Yield_CS_12m</t>
+          <t>Best Div Yield_CS_60m</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="35">
@@ -1490,14 +1490,14 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Best Div Yield_TS_12m</t>
+          <t>Best Div Yield_TS_60m</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="36">
@@ -1520,14 +1520,14 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Best PBK_TS_12m</t>
+          <t>Best PBK_CS_60m</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="37">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Best ROE_CS_12m</t>
+          <t>Best PBK_TS_60m</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="38">
@@ -1580,14 +1580,14 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Best ROE_TS_12m</t>
+          <t>Best ROE_CS_60m</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="39">
@@ -1610,14 +1610,14 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_CS_12m</t>
+          <t>Best ROE_TS_60m</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="40">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_TS_12m</t>
+          <t>Bloom Country Risk_CS_60m</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="41">
@@ -1670,14 +1670,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EV to EBITDA_CS_12m</t>
+          <t>Bloom Country Risk_TS_60m</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.9325060238801069</v>
       </c>
     </row>
     <row r="42">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>20 Day Vol_CS_12m</t>
+          <t>Inflation_CS_60m</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-0.7381270444911876</v>
+        <v>-0.728208787684503</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7381270444911876</v>
+        <v>0.728208787684503</v>
       </c>
     </row>
     <row r="47">
@@ -1850,14 +1850,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Inflation_CS_60m</t>
+          <t>Gold_CS_60m</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-0.728208787684503</v>
+        <v>0.686410792150889</v>
       </c>
       <c r="H47" t="n">
-        <v>0.728208787684503</v>
+        <v>0.686410792150889</v>
       </c>
     </row>
     <row r="48">
@@ -1880,14 +1880,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Inflation_CS_12m</t>
+          <t>3MTR_TS_60m</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-0.7273180911026459</v>
+        <v>-0.6861701752192849</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7273180911026459</v>
+        <v>0.6861701752192849</v>
       </c>
     </row>
     <row r="49">
@@ -1910,14 +1910,14 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Oil_CS_12m</t>
+          <t>20 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7017945133061002</v>
+        <v>-0.6855152808346817</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7017945133061002</v>
+        <v>0.6855152808346817</v>
       </c>
     </row>
     <row r="50">
@@ -1940,14 +1940,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gold_CS_12m</t>
+          <t>Oil_CS_60m</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6948496977152177</v>
+        <v>0.6515358634302707</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6948496977152177</v>
+        <v>0.6515358634302707</v>
       </c>
     </row>
     <row r="51">
@@ -1970,14 +1970,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3MTR_CS_12m</t>
+          <t>Copper_CS_60m</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-0.6923047926689798</v>
+        <v>0.6461778208858666</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6923047926689798</v>
+        <v>0.6461778208858666</v>
       </c>
     </row>
     <row r="52">
@@ -2000,14 +2000,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS</t>
+          <t>Earnings Yield_TS_60m</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5949927687171543</v>
+        <v>0.5694787828746046</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5949927687171543</v>
+        <v>0.5694787828746046</v>
       </c>
     </row>
     <row r="53">
@@ -2030,14 +2030,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Trailing EPS_CS_3m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5823689956261264</v>
+        <v>0.4233385510827768</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5823689956261264</v>
+        <v>0.4233385510827768</v>
       </c>
     </row>
     <row r="54">
@@ -2060,14 +2060,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS_60m</t>
+          <t>Currency 12_CS_60m</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5694787828746046</v>
+        <v>0.4007115161720906</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5694787828746046</v>
+        <v>0.4007115161720906</v>
       </c>
     </row>
     <row r="55">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Trailing PE_TS_3m</t>
+          <t>Best Price Sales_CS_60m</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5467379181924376</v>
+        <v>0.3800880341330475</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5467379181924376</v>
+        <v>0.3800880341330475</v>
       </c>
     </row>
     <row r="56">
@@ -2120,14 +2120,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS_12m</t>
+          <t>Shiller PE_TS_60m</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5233260308255742</v>
+        <v>0.379579496617169</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5233260308255742</v>
+        <v>0.379579496617169</v>
       </c>
     </row>
     <row r="57">
@@ -2150,14 +2150,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10Yr Bond_CS_3m</t>
+          <t>Current Account_TS_60m</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>-0.4948998878297491</v>
+        <v>0.3490056209272159</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4948998878297491</v>
+        <v>0.3490056209272159</v>
       </c>
     </row>
     <row r="58">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>LT Growth_CS_3m</t>
+          <t>Gold 12_CS_60m</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.3198023461261562</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.3198023461261562</v>
       </c>
     </row>
     <row r="59">
@@ -2210,14 +2210,14 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LT Growth_TS_3m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.314226062739821</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.314226062739821</v>
       </c>
     </row>
     <row r="60">
@@ -2240,14 +2240,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Positive PE _CS_3m</t>
+          <t>GDP_CS_60m</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4728553790608531</v>
+        <v>-0.3125674799950919</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.3125674799950919</v>
       </c>
     </row>
     <row r="61">
@@ -2270,14 +2270,14 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Positive PE _TS_3m</t>
+          <t>Best Price Sales_TS_60m</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.2876019146297646</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4728553790608531</v>
+        <v>0.2876019146297646</v>
       </c>
     </row>
     <row r="62">
@@ -2600,14 +2600,14 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Shiller PE_TS</t>
+          <t>Shiller PE_TS_60m</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.633973772738453</v>
+        <v>0.5358350316098515</v>
       </c>
       <c r="H72" t="n">
-        <v>0.633973772738453</v>
+        <v>0.5358350316098515</v>
       </c>
     </row>
     <row r="73">
@@ -2630,14 +2630,14 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10Yr Bond_CS_3m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>-0.5410872941785327</v>
+        <v>0.439467872736584</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5410872941785327</v>
+        <v>0.439467872736584</v>
       </c>
     </row>
     <row r="74">
@@ -2660,14 +2660,14 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Shiller PE_TS_60m</t>
+          <t>1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5358350316098515</v>
+        <v>0.3548013802542838</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5358350316098515</v>
+        <v>0.3548013802542838</v>
       </c>
     </row>
     <row r="75">
@@ -2690,14 +2690,14 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>RSI14_TS_3m</t>
+          <t>RSI14_TS_60m</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4865327569848884</v>
+        <v>0.3524529512451084</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4865327569848884</v>
+        <v>0.3524529512451084</v>
       </c>
     </row>
     <row r="76">
@@ -2720,14 +2720,14 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Best Price Sales_CS_3m</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4680360747249299</v>
+        <v>-0.3372133812608173</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4680360747249299</v>
+        <v>0.3372133812608173</v>
       </c>
     </row>
     <row r="77">
@@ -2750,14 +2750,14 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS_3m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4579240267412922</v>
+        <v>-0.3228140052419445</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4579240267412922</v>
+        <v>0.3228140052419445</v>
       </c>
     </row>
     <row r="78">
@@ -2780,14 +2780,14 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Currency_TS_60m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.439467872736584</v>
+        <v>-0.3100322255757965</v>
       </c>
       <c r="H78" t="n">
-        <v>0.439467872736584</v>
+        <v>0.3100322255757965</v>
       </c>
     </row>
     <row r="79">
@@ -2810,14 +2810,14 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Currency_TS_3m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4350041709566372</v>
+        <v>0.3080381689109462</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4350041709566372</v>
+        <v>0.3080381689109462</v>
       </c>
     </row>
     <row r="80">
@@ -2840,14 +2840,14 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_3m</t>
+          <t>MCAP Adj_TS_60m</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4312921046457955</v>
+        <v>-0.2827240300232553</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4312921046457955</v>
+        <v>0.2827240300232553</v>
       </c>
     </row>
     <row r="81">
@@ -2870,14 +2870,14 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Currency 12_CS_3m</t>
+          <t>MCAP_TS_60m</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4250805844634662</v>
+        <v>-0.2827240300232553</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4250805844634662</v>
+        <v>0.2827240300232553</v>
       </c>
     </row>
     <row r="82">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Shiller PE_TS_12m</t>
+          <t>RSI14_TS_60m</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8810537247542135</v>
+        <v>0.8543896547431979</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8810537247542135</v>
+        <v>0.8543896547431979</v>
       </c>
     </row>
     <row r="83">
@@ -2930,14 +2930,14 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>RSI14_TS_60m</t>
+          <t>120MA_CS_60m</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8543896547431979</v>
+        <v>0.8342810489931091</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8543896547431979</v>
+        <v>0.8342810489931091</v>
       </c>
     </row>
     <row r="84">
@@ -2960,14 +2960,14 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>120MA_CS_60m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8342810489931091</v>
+        <v>0.7833238841358315</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8342810489931091</v>
+        <v>0.7833238841358315</v>
       </c>
     </row>
     <row r="85">
@@ -2990,14 +2990,14 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Trailing EPS_CS_60m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7833238841358315</v>
+        <v>-0.7789298012623431</v>
       </c>
       <c r="H85" t="n">
-        <v>0.7833238841358315</v>
+        <v>0.7789298012623431</v>
       </c>
     </row>
     <row r="86">
@@ -3020,14 +3020,14 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Shiller PE_CS_60m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>-0.7789298012623431</v>
+        <v>-0.764587692630049</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7789298012623431</v>
+        <v>0.764587692630049</v>
       </c>
     </row>
     <row r="87">
@@ -3050,14 +3050,14 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_60m</t>
+          <t>Current Account_TS_60m</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>-0.764587692630049</v>
+        <v>0.7638942266518862</v>
       </c>
       <c r="H87" t="n">
-        <v>0.764587692630049</v>
+        <v>0.7638942266518862</v>
       </c>
     </row>
     <row r="88">
@@ -3080,14 +3080,14 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Current Account_TS_60m</t>
+          <t>Earnings Yield_TS_60m</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7638942266518862</v>
+        <v>0.7510470034477509</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7638942266518862</v>
+        <v>0.7510470034477509</v>
       </c>
     </row>
     <row r="89">
@@ -3110,14 +3110,14 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS_60m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7510470034477509</v>
+        <v>0.7367687187024086</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7510470034477509</v>
+        <v>0.7367687187024086</v>
       </c>
     </row>
     <row r="90">
@@ -3140,14 +3140,14 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Currency_TS_60m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7367687187024086</v>
+        <v>0.7335010586168127</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7367687187024086</v>
+        <v>0.7335010586168127</v>
       </c>
     </row>
     <row r="91">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_60m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3320,14 +3320,14 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PX_LAST_CS_12m</t>
+          <t>Trailing EPS 36_TS_60m</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.855843403708072</v>
+        <v>0.8144200341977019</v>
       </c>
       <c r="H96" t="n">
-        <v>0.855843403708072</v>
+        <v>0.8144200341977019</v>
       </c>
     </row>
     <row r="97">
@@ -3350,14 +3350,14 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS_12m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8389543416176626</v>
+        <v>-0.8126649756377445</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8389543416176626</v>
+        <v>0.8126649756377445</v>
       </c>
     </row>
     <row r="98">
@@ -3380,14 +3380,14 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>BEST EPS_TS_12m</t>
+          <t>120MA Signal_CS_60m</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8381254376130646</v>
+        <v>0.8052398712369349</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8381254376130646</v>
+        <v>0.8052398712369349</v>
       </c>
     </row>
     <row r="99">
@@ -3410,14 +3410,14 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Trailing EPS 36_TS_60m</t>
+          <t>Operating Margin_CS_60m</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.8144200341977019</v>
+        <v>0.7970891404124473</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8144200341977019</v>
+        <v>0.7970891404124473</v>
       </c>
     </row>
     <row r="100">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Shiller PE_CS_60m</t>
+          <t>BEST EPS_TS_60m</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>-0.8126649756377445</v>
+        <v>0.7819306225477681</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8126649756377445</v>
+        <v>0.7819306225477681</v>
       </c>
     </row>
     <row r="101">
@@ -3470,14 +3470,14 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_60m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8052398712369349</v>
+        <v>0.7810047618828003</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8052398712369349</v>
+        <v>0.7810047618828003</v>
       </c>
     </row>
     <row r="102">
@@ -3890,14 +3890,14 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>12MTR_CS_12m</t>
+          <t>Trailing EPS_TS_60m</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6519639201608816</v>
+        <v>0.6322790958295332</v>
       </c>
       <c r="H115" t="n">
-        <v>0.6519639201608816</v>
+        <v>0.6322790958295332</v>
       </c>
     </row>
     <row r="116">
@@ -3920,14 +3920,14 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_60m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6322790958295332</v>
+        <v>0.5847985826157025</v>
       </c>
       <c r="H116" t="n">
-        <v>0.6322790958295332</v>
+        <v>0.5847985826157025</v>
       </c>
     </row>
     <row r="117">
@@ -3950,14 +3950,14 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10Yr Bond_TS_12m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6267528940443049</v>
+        <v>0.5685789500501127</v>
       </c>
       <c r="H117" t="n">
-        <v>0.6267528940443049</v>
+        <v>0.5685789500501127</v>
       </c>
     </row>
     <row r="118">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>120MA_TS_12m</t>
+          <t>Best PE _TS_60m</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5982003141351731</v>
+        <v>-0.5386963319344668</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5982003141351731</v>
+        <v>0.5386963319344668</v>
       </c>
     </row>
     <row r="119">
@@ -4010,14 +4010,14 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Trailing EPS 36_TS_12m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5880428149386299</v>
+        <v>0.502854394973767</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5880428149386299</v>
+        <v>0.502854394973767</v>
       </c>
     </row>
     <row r="120">
@@ -4040,14 +4040,14 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_60m</t>
+          <t>Advance Decline_TS_60m</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5847985826157025</v>
+        <v>-0.4768200423502977</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5847985826157025</v>
+        <v>0.4768200423502977</v>
       </c>
     </row>
     <row r="121">
@@ -4070,14 +4070,14 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>12-1MTR_CS_12m</t>
+          <t>Bloom Country Risk_TS_60m</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5811191151342279</v>
+        <v>0.445465992484638</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5811191151342279</v>
+        <v>0.445465992484638</v>
       </c>
     </row>
     <row r="122">
@@ -4100,14 +4100,14 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS_3m</t>
+          <t>Inflation_TS_60m</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6774289232214749</v>
+        <v>0.2968582447621532</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6774289232214749</v>
+        <v>0.2968582447621532</v>
       </c>
     </row>
     <row r="123">
@@ -4130,14 +4130,14 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>MCAP_TS_3m</t>
+          <t>Currency 12_TS_60m</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.6774289232214749</v>
+        <v>-0.2863395108164338</v>
       </c>
       <c r="H123" t="n">
-        <v>0.6774289232214749</v>
+        <v>0.2863395108164338</v>
       </c>
     </row>
     <row r="124">
@@ -4160,14 +4160,14 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>360 Day Vol_TS</t>
+          <t>Positive PE _CS_60m</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5637942895086253</v>
+        <v>-0.2367004269995255</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5637942895086253</v>
+        <v>0.2367004269995255</v>
       </c>
     </row>
     <row r="125">
@@ -4190,14 +4190,14 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>12-1MTR_CS_3m</t>
+          <t>Copper 12_CS_60m</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5327436439185985</v>
+        <v>-0.2303177579346309</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5327436439185985</v>
+        <v>0.2303177579346309</v>
       </c>
     </row>
     <row r="126">
@@ -4220,14 +4220,14 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>12MTR_CS_3m</t>
+          <t>Trailing EPS_TS_60m</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5284510974178674</v>
+        <v>0.2072228504016042</v>
       </c>
       <c r="H126" t="n">
-        <v>0.5284510974178674</v>
+        <v>0.2072228504016042</v>
       </c>
     </row>
     <row r="127">
@@ -4250,14 +4250,14 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>360 Day Vol_TS_12m</t>
+          <t>Agriculture_TS_60m</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5266970115332531</v>
+        <v>-0.1978775595350598</v>
       </c>
       <c r="H127" t="n">
-        <v>0.5266970115332531</v>
+        <v>0.1978775595350598</v>
       </c>
     </row>
     <row r="128">
@@ -4280,14 +4280,14 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Currency_CS_3m</t>
+          <t>Copper_TS_60m</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>-0.5225656349988228</v>
+        <v>-0.1978775595350598</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5225656349988228</v>
+        <v>0.1978775595350598</v>
       </c>
     </row>
     <row r="129">
@@ -4310,14 +4310,14 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS</t>
+          <t>Gold_TS_60m</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.4978117165907432</v>
+        <v>-0.1978775595350598</v>
       </c>
       <c r="H129" t="n">
-        <v>0.4978117165907432</v>
+        <v>0.1978775595350598</v>
       </c>
     </row>
     <row r="130">
@@ -4340,14 +4340,14 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>MCAP_TS</t>
+          <t>Oil_TS_60m</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.4978117165907432</v>
+        <v>-0.1978775595350598</v>
       </c>
       <c r="H130" t="n">
-        <v>0.4978117165907432</v>
+        <v>0.1978775595350598</v>
       </c>
     </row>
     <row r="131">
@@ -4370,14 +4370,14 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_TS_3m</t>
+          <t>Budget Def_TS_60m</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4875351308314236</v>
+        <v>0.1956326213582974</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4875351308314236</v>
+        <v>0.1956326213582974</v>
       </c>
     </row>
     <row r="132">
@@ -4400,14 +4400,14 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Shiller PE_CS_12m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8352467412313809</v>
+        <v>0.6831114925538826</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8352467412313809</v>
+        <v>0.6831114925538826</v>
       </c>
     </row>
     <row r="133">
@@ -4430,14 +4430,14 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>BEST EPS_CS_12m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8304436732832023</v>
+        <v>0.6636836897705241</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8304436732832023</v>
+        <v>0.6636836897705241</v>
       </c>
     </row>
     <row r="134">
@@ -4460,14 +4460,14 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_12m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7681046626772408</v>
+        <v>0.6544947628630234</v>
       </c>
       <c r="H134" t="n">
-        <v>0.7681046626772408</v>
+        <v>0.6544947628630234</v>
       </c>
     </row>
     <row r="135">
@@ -4490,14 +4490,14 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_12m</t>
+          <t>12-1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.7413088455634408</v>
+        <v>0.6503667279927211</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7413088455634408</v>
+        <v>0.6503667279927211</v>
       </c>
     </row>
     <row r="136">
@@ -4520,14 +4520,14 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>120MA Signal_TS_60m</t>
+          <t>Advance Decline_CS_60m</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6831114925538826</v>
+        <v>-0.6234606919275032</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6831114925538826</v>
+        <v>0.6234606919275032</v>
       </c>
     </row>
     <row r="137">
@@ -4550,14 +4550,14 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Trailing EPS 36_TS_12m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6672235729138996</v>
+        <v>0.6076526145616974</v>
       </c>
       <c r="H137" t="n">
-        <v>0.6672235729138996</v>
+        <v>0.6076526145616974</v>
       </c>
     </row>
     <row r="138">
@@ -4580,14 +4580,14 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_12m</t>
+          <t>3MTR_CS_60m</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6663656277460931</v>
+        <v>0.5992617156948122</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6663656277460931</v>
+        <v>0.5992617156948122</v>
       </c>
     </row>
     <row r="139">
@@ -4610,14 +4610,14 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>BEST EPS_CS_60m</t>
+          <t>10Yr Bond_TS_60m</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6636836897705241</v>
+        <v>0.5852658592028105</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6636836897705241</v>
+        <v>0.5852658592028105</v>
       </c>
     </row>
     <row r="140">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_60m</t>
+          <t>12MTR_TS_60m</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6544947628630234</v>
+        <v>0.5807645876115652</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6544947628630234</v>
+        <v>0.5807645876115652</v>
       </c>
     </row>
     <row r="141">
@@ -4670,14 +4670,14 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>12-1MTR_TS_60m</t>
+          <t>Bloom Country Risk_TS_60m</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6503667279927211</v>
+        <v>0.5786680377414655</v>
       </c>
       <c r="H141" t="n">
-        <v>0.6503667279927211</v>
+        <v>0.5786680377414655</v>
       </c>
     </row>
     <row r="142">
@@ -4700,14 +4700,14 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Best ROE_CS</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6515476259017812</v>
+        <v>0.5495960148062059</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6515476259017812</v>
+        <v>0.5495960148062059</v>
       </c>
     </row>
     <row r="143">
@@ -4730,14 +4730,14 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_12m</t>
+          <t>12MTR_CS_60m</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.632711124587982</v>
+        <v>0.5204886977601425</v>
       </c>
       <c r="H143" t="n">
-        <v>0.632711124587982</v>
+        <v>0.5204886977601425</v>
       </c>
     </row>
     <row r="144">
@@ -4760,14 +4760,14 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>10Yr Bond_TS_3m</t>
+          <t>360 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.603969081927748</v>
+        <v>0.4999622083473972</v>
       </c>
       <c r="H144" t="n">
-        <v>0.603969081927748</v>
+        <v>0.4999622083473972</v>
       </c>
     </row>
     <row r="145">
@@ -4790,14 +4790,14 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>360 Day Vol_CS_12m</t>
+          <t>12-1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5986323994539759</v>
+        <v>0.449460462504531</v>
       </c>
       <c r="H145" t="n">
-        <v>0.5986323994539759</v>
+        <v>0.449460462504531</v>
       </c>
     </row>
     <row r="146">
@@ -4820,14 +4820,14 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_3m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.5927636016035717</v>
+        <v>0.4389350592583677</v>
       </c>
       <c r="H146" t="n">
-        <v>0.5927636016035717</v>
+        <v>0.4389350592583677</v>
       </c>
     </row>
     <row r="147">
@@ -4850,14 +4850,14 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>10Yr Bond_CS_3m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5817287387531624</v>
+        <v>0.4264236304531174</v>
       </c>
       <c r="H147" t="n">
-        <v>0.5817287387531624</v>
+        <v>0.4264236304531174</v>
       </c>
     </row>
     <row r="148">
@@ -4880,14 +4880,14 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Mcap Weights_TS_3m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5769745327990115</v>
+        <v>0.4144956011088198</v>
       </c>
       <c r="H148" t="n">
-        <v>0.5769745327990115</v>
+        <v>0.4144956011088198</v>
       </c>
     </row>
     <row r="149">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>MCAP Adj_CS_3m</t>
+          <t>Positive PE _CS_60m</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-0.5630893824889014</v>
+        <v>0.3816913292334096</v>
       </c>
       <c r="H149" t="n">
-        <v>0.5630893824889014</v>
+        <v>0.3816913292334096</v>
       </c>
     </row>
     <row r="150">
@@ -4940,14 +4940,14 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mcap Weights_CS_3m</t>
+          <t>Bloom Country Risk_TS_60m</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-0.5630893824889014</v>
+        <v>0.3816768779194081</v>
       </c>
       <c r="H150" t="n">
-        <v>0.5630893824889014</v>
+        <v>0.3816768779194081</v>
       </c>
     </row>
     <row r="151">
@@ -4970,14 +4970,14 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_3m</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5598029055415681</v>
+        <v>-0.3759130227315401</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5598029055415681</v>
+        <v>0.3759130227315401</v>
       </c>
     </row>
     <row r="152">
@@ -5000,14 +5000,14 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Operating Margin_TS_12m</t>
+          <t>REER_CS_60m</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8037966188076311</v>
+        <v>0.7533713221065237</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8037966188076311</v>
+        <v>0.7533713221065237</v>
       </c>
     </row>
     <row r="153">
@@ -5030,14 +5030,14 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Debt to GDP_CS_12m</t>
+          <t>Positive PE _TS_60m</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7636278257636127</v>
+        <v>0.7166258253117418</v>
       </c>
       <c r="H153" t="n">
-        <v>0.7636278257636127</v>
+        <v>0.7166258253117418</v>
       </c>
     </row>
     <row r="154">
@@ -5060,14 +5060,14 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>REER_CS_60m</t>
+          <t>10Yr Bond 12_CS_60m</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7533713221065237</v>
+        <v>0.7131901260928512</v>
       </c>
       <c r="H154" t="n">
-        <v>0.7533713221065237</v>
+        <v>0.7131901260928512</v>
       </c>
     </row>
     <row r="155">
@@ -5090,14 +5090,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>REER_CS_12m</t>
+          <t>Bloom Country Risk_CS_60m</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7186201284841225</v>
+        <v>0.6864528386327273</v>
       </c>
       <c r="H155" t="n">
-        <v>0.7186201284841225</v>
+        <v>0.6864528386327273</v>
       </c>
     </row>
     <row r="156">
@@ -5120,14 +5120,14 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Positive PE _TS_60m</t>
+          <t>EV to EBITDA_CS_60m</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7166258253117418</v>
+        <v>0.6741010702628393</v>
       </c>
       <c r="H156" t="n">
-        <v>0.7166258253117418</v>
+        <v>0.6741010702628393</v>
       </c>
     </row>
     <row r="157">
@@ -5150,14 +5150,14 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_CS_12m</t>
+          <t>Trailing EPS 36_TS_60m</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7132728961497011</v>
+        <v>-0.6611578247471381</v>
       </c>
       <c r="H157" t="n">
-        <v>0.7132728961497011</v>
+        <v>0.6611578247471381</v>
       </c>
     </row>
     <row r="158">
@@ -5180,14 +5180,14 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>10Yr Bond 12_CS_60m</t>
+          <t>10Yr Bond_CS_60m</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7131901260928512</v>
+        <v>0.6392689472156275</v>
       </c>
       <c r="H158" t="n">
-        <v>0.7131901260928512</v>
+        <v>0.6392689472156275</v>
       </c>
     </row>
     <row r="159">
@@ -5210,14 +5210,14 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_CS_3m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.68876931060758</v>
+        <v>-0.6364503099240204</v>
       </c>
       <c r="H159" t="n">
-        <v>0.68876931060758</v>
+        <v>0.6364503099240204</v>
       </c>
     </row>
     <row r="160">
@@ -5240,14 +5240,14 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_CS_60m</t>
+          <t>3MTR_TS_60m</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6864528386327273</v>
+        <v>-0.6111633762010918</v>
       </c>
       <c r="H160" t="n">
-        <v>0.6864528386327273</v>
+        <v>0.6111633762010918</v>
       </c>
     </row>
     <row r="161">
@@ -5270,14 +5270,14 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>EV to EBITDA_CS_60m</t>
+          <t>Earnings Yield_CS_60m</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.6741010702628393</v>
+        <v>-0.5978130377049459</v>
       </c>
       <c r="H161" t="n">
-        <v>0.6741010702628393</v>
+        <v>0.5978130377049459</v>
       </c>
     </row>
     <row r="162">
@@ -5300,14 +5300,14 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Best ROE_CS_12m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7490328984122248</v>
+        <v>0.7039922120207143</v>
       </c>
       <c r="H162" t="n">
-        <v>0.7490328984122248</v>
+        <v>0.7039922120207143</v>
       </c>
     </row>
     <row r="163">
@@ -5330,14 +5330,14 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>REER_TS_12m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>-0.7262367536976068</v>
+        <v>0.7024916481531844</v>
       </c>
       <c r="H163" t="n">
-        <v>0.7262367536976068</v>
+        <v>0.7024916481531844</v>
       </c>
     </row>
     <row r="164">
@@ -5360,14 +5360,14 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>12MTR_CS_12m</t>
+          <t>Trailing EPS 36_TS_60m</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7137917578839668</v>
+        <v>0.6824486219445396</v>
       </c>
       <c r="H164" t="n">
-        <v>0.7137917578839668</v>
+        <v>0.6824486219445396</v>
       </c>
     </row>
     <row r="165">
@@ -5390,14 +5390,14 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>10Yr Bond_TS_12m</t>
+          <t>Trailing EPS_TS_60m</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.712456580102906</v>
+        <v>0.6671760739883954</v>
       </c>
       <c r="H165" t="n">
-        <v>0.712456580102906</v>
+        <v>0.6671760739883954</v>
       </c>
     </row>
     <row r="166">
@@ -5420,14 +5420,14 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>120MA Signal_TS_12m</t>
+          <t>12-1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7091597301737499</v>
+        <v>0.6419433966671834</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7091597301737499</v>
+        <v>0.6419433966671834</v>
       </c>
     </row>
     <row r="167">
@@ -5450,14 +5450,14 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>12-1MTR_CS_12m</t>
+          <t>Inflation_TS_60m</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7074587587747755</v>
+        <v>0.6149649138317467</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7074587587747755</v>
+        <v>0.6149649138317467</v>
       </c>
     </row>
     <row r="168">
@@ -5480,14 +5480,14 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_60m</t>
+          <t>Tot Return Index _TS_60m</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.7039922120207143</v>
+        <v>0.6093964205140083</v>
       </c>
       <c r="H168" t="n">
-        <v>0.7039922120207143</v>
+        <v>0.6093964205140083</v>
       </c>
     </row>
     <row r="169">
@@ -5510,14 +5510,14 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_60m</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7024916481531844</v>
+        <v>-0.5774039921357818</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7024916481531844</v>
+        <v>0.5774039921357818</v>
       </c>
     </row>
     <row r="170">
@@ -5540,14 +5540,14 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1MTR_TS_12m</t>
+          <t>360 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>-0.6927426526280543</v>
+        <v>0.5594361670409422</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6927426526280543</v>
+        <v>0.5594361670409422</v>
       </c>
     </row>
     <row r="171">
@@ -5570,14 +5570,14 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Trailing EPS 36_TS_60m</t>
+          <t>12MTR_CS_60m</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6824486219445396</v>
+        <v>0.5572687998498573</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6824486219445396</v>
+        <v>0.5572687998498573</v>
       </c>
     </row>
     <row r="172">
@@ -5600,14 +5600,14 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Agriculture 12_TS_3m</t>
+          <t>Oil 12_CS_60m</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0.4159573166896124</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0.4159573166896124</v>
       </c>
     </row>
     <row r="173">
@@ -5630,14 +5630,14 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Agriculture_TS_3m</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
     </row>
     <row r="174">
@@ -5660,14 +5660,14 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Copper 12_TS_3m</t>
+          <t>Copper 12_TS_60m</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
     </row>
     <row r="175">
@@ -5690,14 +5690,14 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Copper_TS_3m</t>
+          <t>Gold 12_TS_60m</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
     </row>
     <row r="176">
@@ -5720,14 +5720,14 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Gold 12_TS_3m</t>
+          <t>Oil 12_TS_60m</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0.3770099021384543</v>
       </c>
     </row>
     <row r="177">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Gold_TS_3m</t>
+          <t>REER_CS_60m</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>-0.3572255725726732</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0.3572255725726732</v>
       </c>
     </row>
     <row r="178">
@@ -5780,14 +5780,14 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Oil 12_TS_3m</t>
+          <t>Inflation_CS_60m</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>-0.3481840759411873</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0.3481840759411873</v>
       </c>
     </row>
     <row r="179">
@@ -5810,14 +5810,14 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Agriculture_CS_3m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9700228984110608</v>
+        <v>0.3444857868629358</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9700228984110608</v>
+        <v>0.3444857868629358</v>
       </c>
     </row>
     <row r="180">
@@ -5840,14 +5840,14 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Oil_CS_3m</t>
+          <t>Copper_CS_60m</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9433163337263</v>
+        <v>0.3230571467111353</v>
       </c>
       <c r="H180" t="n">
-        <v>0.9433163337263</v>
+        <v>0.3230571467111353</v>
       </c>
     </row>
     <row r="181">
@@ -5870,14 +5870,14 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Gold_CS_3m</t>
+          <t>GDP_CS_60m</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9355968042731824</v>
+        <v>-0.3167021717023784</v>
       </c>
       <c r="H181" t="n">
-        <v>0.9355968042731824</v>
+        <v>0.3167021717023784</v>
       </c>
     </row>
     <row r="182">
@@ -5900,14 +5900,14 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Inflation_CS</t>
+          <t>Currency 12_TS_60m</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>-0.6889862208705448</v>
+        <v>0.213146346943499</v>
       </c>
       <c r="H182" t="n">
-        <v>0.6889862208705448</v>
+        <v>0.213146346943499</v>
       </c>
     </row>
     <row r="183">
@@ -5930,14 +5930,14 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>P2P_CS</t>
+          <t>1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6451805262003524</v>
+        <v>-0.212772863426591</v>
       </c>
       <c r="H183" t="n">
-        <v>0.6451805262003524</v>
+        <v>0.212772863426591</v>
       </c>
     </row>
     <row r="184">
@@ -5960,14 +5960,14 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>20 Day Vol_CS</t>
+          <t>Best PBK_CS_60m</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-0.6203753853160078</v>
+        <v>-0.1959855987060788</v>
       </c>
       <c r="H184" t="n">
-        <v>0.6203753853160078</v>
+        <v>0.1959855987060788</v>
       </c>
     </row>
     <row r="185">
@@ -5990,14 +5990,14 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>P2P_TS_3m</t>
+          <t>Inflation_CS_60m</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5815792553227226</v>
+        <v>-0.1813334632214011</v>
       </c>
       <c r="H185" t="n">
-        <v>0.5815792553227226</v>
+        <v>0.1813334632214011</v>
       </c>
     </row>
     <row r="186">
@@ -6020,14 +6020,14 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Debt to EV_CS</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5326245533345965</v>
+        <v>0.1408183912986725</v>
       </c>
       <c r="H186" t="n">
-        <v>0.5326245533345965</v>
+        <v>0.1408183912986725</v>
       </c>
     </row>
     <row r="187">
@@ -6050,14 +6050,14 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS</t>
+          <t>Oil 12_CS_60m</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.5155209147434348</v>
+        <v>0.1346925087304246</v>
       </c>
       <c r="H187" t="n">
-        <v>0.5155209147434348</v>
+        <v>0.1346925087304246</v>
       </c>
     </row>
     <row r="188">
@@ -6080,14 +6080,14 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Agriculture_CS</t>
+          <t>1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.4896856329915952</v>
+        <v>-0.1331051436027407</v>
       </c>
       <c r="H188" t="n">
-        <v>0.4896856329915952</v>
+        <v>0.1331051436027407</v>
       </c>
     </row>
     <row r="189">
@@ -6110,14 +6110,14 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Agriculture 12_TS</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.4847623997847637</v>
+        <v>0.1328744116720315</v>
       </c>
       <c r="H189" t="n">
-        <v>0.4847623997847637</v>
+        <v>0.1328744116720315</v>
       </c>
     </row>
     <row r="190">
@@ -6140,14 +6140,14 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Agriculture_TS</t>
+          <t>Copper 12_TS_60m</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.4847623997847637</v>
+        <v>0.1328744116720315</v>
       </c>
       <c r="H190" t="n">
-        <v>0.4847623997847637</v>
+        <v>0.1328744116720315</v>
       </c>
     </row>
     <row r="191">
@@ -6170,14 +6170,14 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Copper 12_TS</t>
+          <t>Gold 12_TS_60m</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.4847623997847637</v>
+        <v>0.1328744116720315</v>
       </c>
       <c r="H191" t="n">
-        <v>0.4847623997847637</v>
+        <v>0.1328744116720315</v>
       </c>
     </row>
     <row r="192">
@@ -6200,14 +6200,14 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Trailing PE_TS_3m</t>
+          <t>Positive PE _TS_60m</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5976454858837787</v>
+        <v>0.5052310632613647</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5976454858837787</v>
+        <v>0.5052310632613647</v>
       </c>
     </row>
     <row r="193">
@@ -6230,14 +6230,14 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Positive PE _TS_12m</t>
+          <t>LT Growth_TS_60m</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5602796112337592</v>
+        <v>-0.2935588808039515</v>
       </c>
       <c r="H193" t="n">
-        <v>0.5602796112337592</v>
+        <v>0.2935588808039515</v>
       </c>
     </row>
     <row r="194">
@@ -6260,14 +6260,14 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Best PBK_TS_3m</t>
+          <t>Debt to GDP_CS_60m</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.5326825813051691</v>
+        <v>0.2825603863678565</v>
       </c>
       <c r="H194" t="n">
-        <v>0.5326825813051691</v>
+        <v>0.2825603863678565</v>
       </c>
     </row>
     <row r="195">
@@ -6290,14 +6290,14 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Positive PE _TS</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.506310998457136</v>
+        <v>0.277570314595416</v>
       </c>
       <c r="H195" t="n">
-        <v>0.506310998457136</v>
+        <v>0.277570314595416</v>
       </c>
     </row>
     <row r="196">
@@ -6320,14 +6320,14 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Positive PE _TS_60m</t>
+          <t>10Yr Bond 12_CS_60m</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5052310632613647</v>
+        <v>0.276684117041563</v>
       </c>
       <c r="H196" t="n">
-        <v>0.5052310632613647</v>
+        <v>0.276684117041563</v>
       </c>
     </row>
     <row r="197">
@@ -6350,14 +6350,14 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>REER_TS_3m</t>
+          <t>RSI14_TS_60m</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.4669789582049595</v>
+        <v>-0.2720889349738923</v>
       </c>
       <c r="H197" t="n">
-        <v>0.4669789582049595</v>
+        <v>0.2720889349738923</v>
       </c>
     </row>
     <row r="198">
@@ -6380,14 +6380,14 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS_3m</t>
+          <t>Advance Decline_TS_60m</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.4581636296119458</v>
+        <v>0.2644922858753229</v>
       </c>
       <c r="H198" t="n">
-        <v>0.4581636296119458</v>
+        <v>0.2644922858753229</v>
       </c>
     </row>
     <row r="199">
@@ -6410,14 +6410,14 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Trailing EPS 36_CS_3m</t>
+          <t>Inflation_TS_60m</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.4467470816416282</v>
+        <v>-0.2542771344063038</v>
       </c>
       <c r="H199" t="n">
-        <v>0.4467470816416282</v>
+        <v>0.2542771344063038</v>
       </c>
     </row>
     <row r="200">
@@ -6440,14 +6440,14 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>10Yr Bond 12_CS_3m</t>
+          <t>10Yr Bond_CS_60m</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4248816869767176</v>
+        <v>0.2542665563325303</v>
       </c>
       <c r="H200" t="n">
-        <v>0.4248816869767176</v>
+        <v>0.2542665563325303</v>
       </c>
     </row>
     <row r="201">
@@ -6470,14 +6470,14 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_CS</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.4119798627472003</v>
+        <v>-0.2452632442232086</v>
       </c>
       <c r="H201" t="n">
-        <v>0.4119798627472003</v>
+        <v>0.2452632442232086</v>
       </c>
     </row>
     <row r="202">
@@ -6500,14 +6500,14 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Debt to GDP_TS_3m</t>
+          <t>12MTR_CS_60m</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.892796504261453</v>
+        <v>0.4629343080219985</v>
       </c>
       <c r="H202" t="n">
-        <v>0.892796504261453</v>
+        <v>0.4629343080219985</v>
       </c>
     </row>
     <row r="203">
@@ -6530,14 +6530,14 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Inflation_CS_3m</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8572160510823025</v>
+        <v>0.4509619262689187</v>
       </c>
       <c r="H203" t="n">
-        <v>0.8572160510823025</v>
+        <v>0.4509619262689187</v>
       </c>
     </row>
     <row r="204">
@@ -6560,14 +6560,14 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bloom Country Risk_CS_3m</t>
+          <t>Operating Margin_TS_60m</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8200523591707598</v>
+        <v>-0.4410267590217541</v>
       </c>
       <c r="H204" t="n">
-        <v>0.8200523591707598</v>
+        <v>0.4410267590217541</v>
       </c>
     </row>
     <row r="205">
@@ -6590,14 +6590,14 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Debt to GDP_CS_3m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7973230188027544</v>
+        <v>0.4396194310445739</v>
       </c>
       <c r="H205" t="n">
-        <v>0.7973230188027544</v>
+        <v>0.4396194310445739</v>
       </c>
     </row>
     <row r="206">
@@ -6620,14 +6620,14 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>GDP_TS_3m</t>
+          <t>12-1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7638692199878523</v>
+        <v>0.4367344762356526</v>
       </c>
       <c r="H206" t="n">
-        <v>0.7638692199878523</v>
+        <v>0.4367344762356526</v>
       </c>
     </row>
     <row r="207">
@@ -6650,14 +6650,14 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>BEST EPS_CS_3m</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7327194297893879</v>
+        <v>-0.4352382826883529</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7327194297893879</v>
+        <v>0.4352382826883529</v>
       </c>
     </row>
     <row r="208">
@@ -6680,14 +6680,14 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>GDP_CS_3m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7000386878104801</v>
+        <v>0.4294301541316245</v>
       </c>
       <c r="H208" t="n">
-        <v>0.7000386878104801</v>
+        <v>0.4294301541316245</v>
       </c>
     </row>
     <row r="209">
@@ -6710,14 +6710,14 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Best Price Sales_CS_3m</t>
+          <t>REER_TS_60m</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>-0.6692155179131469</v>
+        <v>-0.390363155406138</v>
       </c>
       <c r="H209" t="n">
-        <v>0.6692155179131469</v>
+        <v>0.390363155406138</v>
       </c>
     </row>
     <row r="210">
@@ -6740,14 +6740,14 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Trailing EPS_CS_3m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6601414272384094</v>
+        <v>0.3883170031203626</v>
       </c>
       <c r="H210" t="n">
-        <v>0.6601414272384094</v>
+        <v>0.3883170031203626</v>
       </c>
     </row>
     <row r="211">
@@ -6770,14 +6770,14 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>MCAP Adj_CS_3m</t>
+          <t>20 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>-0.6525918003794473</v>
+        <v>0.3803204109296663</v>
       </c>
       <c r="H211" t="n">
-        <v>0.6525918003794473</v>
+        <v>0.3803204109296663</v>
       </c>
     </row>
     <row r="212">
@@ -6860,14 +6860,14 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Shiller PE_CS_12m</t>
+          <t>Copper 12_CS_60m</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>-0.7742879691609175</v>
+        <v>0.7740519361654922</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7742879691609175</v>
+        <v>0.7740519361654922</v>
       </c>
     </row>
     <row r="215">
@@ -6890,14 +6890,14 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Copper 12_CS_60m</t>
+          <t>Debt to GDP_CS_60m</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7740519361654922</v>
+        <v>0.7603451756437088</v>
       </c>
       <c r="H215" t="n">
-        <v>0.7740519361654922</v>
+        <v>0.7603451756437088</v>
       </c>
     </row>
     <row r="216">
@@ -6920,14 +6920,14 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Debt to GDP_CS_60m</t>
+          <t>Debt to EV_CS_60m</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7603451756437088</v>
+        <v>-0.7558944549066999</v>
       </c>
       <c r="H216" t="n">
-        <v>0.7603451756437088</v>
+        <v>0.7558944549066999</v>
       </c>
     </row>
     <row r="217">
@@ -6950,14 +6950,14 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Current Account_TS_12m</t>
+          <t>Advance Decline_TS_60m</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>-0.7559532270122841</v>
+        <v>0.7317231731708875</v>
       </c>
       <c r="H217" t="n">
-        <v>0.7559532270122841</v>
+        <v>0.7317231731708875</v>
       </c>
     </row>
     <row r="218">
@@ -6980,14 +6980,14 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Debt to EV_CS_60m</t>
+          <t>3MTR_TS_60m</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-0.7558944549066999</v>
+        <v>0.71297860455198</v>
       </c>
       <c r="H218" t="n">
-        <v>0.7558944549066999</v>
+        <v>0.71297860455198</v>
       </c>
     </row>
     <row r="219">
@@ -7010,14 +7010,14 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>3MTR_CS_12m</t>
+          <t>Positive PE _TS_60m</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7521443376429221</v>
+        <v>0.694916611966338</v>
       </c>
       <c r="H219" t="n">
-        <v>0.7521443376429221</v>
+        <v>0.694916611966338</v>
       </c>
     </row>
     <row r="220">
@@ -7040,14 +7040,14 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>GDP_TS_12m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.736267439069625</v>
+        <v>0.6812351924541795</v>
       </c>
       <c r="H220" t="n">
-        <v>0.736267439069625</v>
+        <v>0.6812351924541795</v>
       </c>
     </row>
     <row r="221">
@@ -7070,14 +7070,14 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>360 Day Vol_TS_12m</t>
+          <t>Operating Margin_CS_60m</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-0.7323814504968394</v>
+        <v>0.6722689252062967</v>
       </c>
       <c r="H221" t="n">
-        <v>0.7323814504968394</v>
+        <v>0.6722689252062967</v>
       </c>
     </row>
     <row r="222">
@@ -7100,14 +7100,14 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Agriculture_TS_3m</t>
+          <t>12-1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>-0.4631895151160031</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0.4631895151160031</v>
       </c>
     </row>
     <row r="223">
@@ -7130,14 +7130,14 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Copper 12_TS_3m</t>
+          <t>12MTR_CS_60m</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>-0.4442449655303818</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0.4442449655303818</v>
       </c>
     </row>
     <row r="224">
@@ -7160,14 +7160,14 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Copper_TS_3m</t>
+          <t>Best ROE_TS_60m</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>-0.4376920644566191</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0.4376920644566191</v>
       </c>
     </row>
     <row r="225">
@@ -7190,14 +7190,14 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Gold 12_TS_3m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>-0.4369269649422844</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0.4369269649422844</v>
       </c>
     </row>
     <row r="226">
@@ -7220,14 +7220,14 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Gold_TS_3m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>-0.3954425945549917</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0.3954425945549917</v>
       </c>
     </row>
     <row r="227">
@@ -7250,14 +7250,14 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Oil 12_TS_3m</t>
+          <t>120MA Signal_CS_60m</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>-0.3808659854059035</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0.3808659854059035</v>
       </c>
     </row>
     <row r="228">
@@ -7280,14 +7280,14 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Oil_TS_3m</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>-0.3717211634940702</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0.3717211634940702</v>
       </c>
     </row>
     <row r="229">
@@ -7310,14 +7310,14 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Agriculture_CS_3m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9692788558558977</v>
+        <v>-0.336765658714466</v>
       </c>
       <c r="H229" t="n">
-        <v>0.9692788558558977</v>
+        <v>0.336765658714466</v>
       </c>
     </row>
     <row r="230">
@@ -7340,14 +7340,14 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Copper_CS_3m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.3225757256151289</v>
       </c>
       <c r="H230" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.3225757256151289</v>
       </c>
     </row>
     <row r="231">
@@ -7370,14 +7370,14 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Oil_CS_3m</t>
+          <t>10Yr Bond_TS_60m</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.94736965507225</v>
+        <v>-0.3224218027977201</v>
       </c>
       <c r="H231" t="n">
-        <v>0.94736965507225</v>
+        <v>0.3224218027977201</v>
       </c>
     </row>
     <row r="232">
@@ -7460,14 +7460,14 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>RSI14_CS_12m</t>
+          <t>MCAP Adj_TS_60m</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.730497295969523</v>
+        <v>-0.6754025951522852</v>
       </c>
       <c r="H234" t="n">
-        <v>0.730497295969523</v>
+        <v>0.6754025951522852</v>
       </c>
     </row>
     <row r="235">
@@ -7490,14 +7490,14 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Oil 12_CS_12m</t>
+          <t>MCAP_TS_60m</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7113215858468727</v>
+        <v>-0.6749517142474382</v>
       </c>
       <c r="H235" t="n">
-        <v>0.7113215858468727</v>
+        <v>0.6749517142474382</v>
       </c>
     </row>
     <row r="236">
@@ -7520,14 +7520,14 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Best PE _TS_12m</t>
+          <t>REER_CS_60m</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6861976479326723</v>
+        <v>-0.6556074462786017</v>
       </c>
       <c r="H236" t="n">
-        <v>0.6861976479326723</v>
+        <v>0.6556074462786017</v>
       </c>
     </row>
     <row r="237">
@@ -7550,14 +7550,14 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_12m</t>
+          <t>Best ROE_CS_60m</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-0.67867751285386</v>
+        <v>-0.6312392628326514</v>
       </c>
       <c r="H237" t="n">
-        <v>0.67867751285386</v>
+        <v>0.6312392628326514</v>
       </c>
     </row>
     <row r="238">
@@ -7580,14 +7580,14 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS_60m</t>
+          <t>Best PBK_TS_60m</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>-0.6754025951522852</v>
+        <v>0.6208142696978616</v>
       </c>
       <c r="H238" t="n">
-        <v>0.6754025951522852</v>
+        <v>0.6208142696978616</v>
       </c>
     </row>
     <row r="239">
@@ -7610,14 +7610,14 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>MCAP_TS_60m</t>
+          <t>10Yr Bond_TS_60m</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>-0.6749517142474382</v>
+        <v>-0.6203022089928117</v>
       </c>
       <c r="H239" t="n">
-        <v>0.6749517142474382</v>
+        <v>0.6203022089928117</v>
       </c>
     </row>
     <row r="240">
@@ -7640,14 +7640,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Trailing EPS 36_CS_12m</t>
+          <t>GDP_TS_60m</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>-0.6588040321374156</v>
+        <v>-0.5980357535398855</v>
       </c>
       <c r="H240" t="n">
-        <v>0.6588040321374156</v>
+        <v>0.5980357535398855</v>
       </c>
     </row>
     <row r="241">
@@ -7670,14 +7670,14 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>REER_CS_60m</t>
+          <t>LT Growth_CS_60m</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>-0.6556074462786017</v>
+        <v>-0.5802451485919576</v>
       </c>
       <c r="H241" t="n">
-        <v>0.6556074462786017</v>
+        <v>0.5802451485919576</v>
       </c>
     </row>
     <row r="242">
@@ -7700,14 +7700,14 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_3m</t>
+          <t>12MTR_CS_60m</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.6356012336452925</v>
+        <v>0.6166573530484115</v>
       </c>
       <c r="H242" t="n">
-        <v>0.6356012336452925</v>
+        <v>0.6166573530484115</v>
       </c>
     </row>
     <row r="243">
@@ -7730,14 +7730,14 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>12MTR_CS_60m</t>
+          <t>12-1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.6166573530484115</v>
+        <v>0.6003243828888903</v>
       </c>
       <c r="H243" t="n">
-        <v>0.6166573530484115</v>
+        <v>0.6003243828888903</v>
       </c>
     </row>
     <row r="244">
@@ -7760,14 +7760,14 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>12-1MTR_CS_60m</t>
+          <t>12MTR_TS_60m</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6003243828888903</v>
+        <v>0.5808792567454456</v>
       </c>
       <c r="H244" t="n">
-        <v>0.6003243828888903</v>
+        <v>0.5808792567454456</v>
       </c>
     </row>
     <row r="245">
@@ -7790,14 +7790,14 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>12MTR_TS_60m</t>
+          <t>12-1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5808792567454456</v>
+        <v>0.5369492231059891</v>
       </c>
       <c r="H245" t="n">
-        <v>0.5808792567454456</v>
+        <v>0.5369492231059891</v>
       </c>
     </row>
     <row r="246">
@@ -7820,14 +7820,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_12m</t>
+          <t>10Yr Bond 12_TS_60m</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.5585014265486312</v>
+        <v>-0.52771219133953</v>
       </c>
       <c r="H246" t="n">
-        <v>0.5585014265486312</v>
+        <v>0.52771219133953</v>
       </c>
     </row>
     <row r="247">
@@ -7850,14 +7850,14 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>12-1MTR_TS_60m</t>
+          <t>120MA Signal_CS_60m</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5369492231059891</v>
+        <v>0.5120608299065672</v>
       </c>
       <c r="H247" t="n">
-        <v>0.5369492231059891</v>
+        <v>0.5120608299065672</v>
       </c>
     </row>
     <row r="248">
@@ -7880,14 +7880,14 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Gold 12_CS_12m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-0.5292347405331611</v>
+        <v>0.4996798636416567</v>
       </c>
       <c r="H248" t="n">
-        <v>0.5292347405331611</v>
+        <v>0.4996798636416567</v>
       </c>
     </row>
     <row r="249">
@@ -7910,14 +7910,14 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>10Yr Bond 12_TS_60m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>-0.52771219133953</v>
+        <v>0.4986257956787626</v>
       </c>
       <c r="H249" t="n">
-        <v>0.52771219133953</v>
+        <v>0.4986257956787626</v>
       </c>
     </row>
     <row r="250">
@@ -7940,14 +7940,14 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_60m</t>
+          <t>Trailing EPS_TS_60m</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5120608299065672</v>
+        <v>0.4961619444652974</v>
       </c>
       <c r="H250" t="n">
-        <v>0.5120608299065672</v>
+        <v>0.4961619444652974</v>
       </c>
     </row>
     <row r="251">
@@ -7970,14 +7970,14 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Agriculture_CS_12m</t>
+          <t>Tot Return Index _TS_60m</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>-0.508105429545936</v>
+        <v>0.4483735492657626</v>
       </c>
       <c r="H251" t="n">
-        <v>0.508105429545936</v>
+        <v>0.4483735492657626</v>
       </c>
     </row>
     <row r="252">
@@ -8000,14 +8000,14 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Agriculture 12_TS_3m</t>
+          <t>12-1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.4871407369250688</v>
       </c>
       <c r="H252" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.4871407369250688</v>
       </c>
     </row>
     <row r="253">
@@ -8030,14 +8030,14 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Agriculture_TS_3m</t>
+          <t>12MTR_CS_60m</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.4535221305044184</v>
       </c>
       <c r="H253" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.4535221305044184</v>
       </c>
     </row>
     <row r="254">
@@ -8060,14 +8060,14 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Copper 12_TS_3m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.4424405421212659</v>
       </c>
       <c r="H254" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.4424405421212659</v>
       </c>
     </row>
     <row r="255">
@@ -8090,14 +8090,14 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Copper_TS_3m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.3922962219251903</v>
       </c>
       <c r="H255" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.3922962219251903</v>
       </c>
     </row>
     <row r="256">
@@ -8120,14 +8120,14 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Gold 12_TS_3m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.3886112067508583</v>
       </c>
       <c r="H256" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.3886112067508583</v>
       </c>
     </row>
     <row r="257">
@@ -8150,14 +8150,14 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Gold_TS_3m</t>
+          <t>Best ROE_TS_60m</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.3740002502445295</v>
       </c>
       <c r="H257" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.3740002502445295</v>
       </c>
     </row>
     <row r="258">
@@ -8180,14 +8180,14 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Oil 12_TS_3m</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.3697642511971909</v>
       </c>
       <c r="H258" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.3697642511971909</v>
       </c>
     </row>
     <row r="259">
@@ -8210,14 +8210,14 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Oil_TS_3m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9532321838883441</v>
+        <v>-0.3557343625843939</v>
       </c>
       <c r="H259" t="n">
-        <v>0.9532321838883441</v>
+        <v>0.3557343625843939</v>
       </c>
     </row>
     <row r="260">
@@ -8240,14 +8240,14 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Agriculture_CS_3m</t>
+          <t>360 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.9313417605362559</v>
+        <v>-0.3483995463689047</v>
       </c>
       <c r="H260" t="n">
-        <v>0.9313417605362559</v>
+        <v>0.3483995463689047</v>
       </c>
     </row>
     <row r="261">
@@ -8270,14 +8270,14 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Gold_CS_3m</t>
+          <t>Debt to GDP_TS_60m</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.8858213567373512</v>
+        <v>0.3478609162661024</v>
       </c>
       <c r="H261" t="n">
-        <v>0.8858213567373512</v>
+        <v>0.3478609162661024</v>
       </c>
     </row>
     <row r="262">
@@ -8300,14 +8300,14 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>360 Day Vol_CS_12m</t>
+          <t>Earnings Yield_TS_60m</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7511203941654148</v>
+        <v>0.6786377810368091</v>
       </c>
       <c r="H262" t="n">
-        <v>0.7511203941654148</v>
+        <v>0.6786377810368091</v>
       </c>
     </row>
     <row r="263">
@@ -8330,14 +8330,14 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Trailing PE_CS_12m</t>
+          <t>Shiller PE_TS_60m</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.679302864777325</v>
+        <v>0.676570683437107</v>
       </c>
       <c r="H263" t="n">
-        <v>0.679302864777325</v>
+        <v>0.676570683437107</v>
       </c>
     </row>
     <row r="264">
@@ -8360,14 +8360,14 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Currency 12_TS_12m</t>
+          <t>10Yr Bond 12_TS_60m</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6786594483695934</v>
+        <v>-0.6246942454799433</v>
       </c>
       <c r="H264" t="n">
-        <v>0.6786594483695934</v>
+        <v>0.6246942454799433</v>
       </c>
     </row>
     <row r="265">
@@ -8390,14 +8390,14 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS_60m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6786377810368091</v>
+        <v>0.6231659717740663</v>
       </c>
       <c r="H265" t="n">
-        <v>0.6786377810368091</v>
+        <v>0.6231659717740663</v>
       </c>
     </row>
     <row r="266">
@@ -8420,14 +8420,14 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Shiller PE_TS_60m</t>
+          <t>Trailing EPS 36_CS_60m</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.676570683437107</v>
+        <v>-0.6223594710752313</v>
       </c>
       <c r="H266" t="n">
-        <v>0.676570683437107</v>
+        <v>0.6223594710752313</v>
       </c>
     </row>
     <row r="267">
@@ -8450,14 +8450,14 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Budget Def_CS_12m</t>
+          <t>Best PBK_CS_60m</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-0.6632392941744045</v>
+        <v>0.6169731019764535</v>
       </c>
       <c r="H267" t="n">
-        <v>0.6632392941744045</v>
+        <v>0.6169731019764535</v>
       </c>
     </row>
     <row r="268">
@@ -8480,14 +8480,14 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Earnings Yield_CS_12m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.6489739812938525</v>
+        <v>0.6130111854504005</v>
       </c>
       <c r="H268" t="n">
-        <v>0.6489739812938525</v>
+        <v>0.6130111854504005</v>
       </c>
     </row>
     <row r="269">
@@ -8510,14 +8510,14 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>10Yr Bond_TS_12m</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.6464236754747601</v>
+        <v>0.6036329455701044</v>
       </c>
       <c r="H269" t="n">
-        <v>0.6464236754747601</v>
+        <v>0.6036329455701044</v>
       </c>
     </row>
     <row r="270">
@@ -8540,14 +8540,14 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>10Yr Bond 12_TS_60m</t>
+          <t>Best Cash Flow_CS_60m</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>-0.6246942454799433</v>
+        <v>0.5989686415508971</v>
       </c>
       <c r="H270" t="n">
-        <v>0.6246942454799433</v>
+        <v>0.5989686415508971</v>
       </c>
     </row>
     <row r="271">
@@ -8570,14 +8570,14 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Best Cash Flow_TS_60m</t>
+          <t>Gold_CS_60m</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6231659717740663</v>
+        <v>0.5983432984790971</v>
       </c>
       <c r="H271" t="n">
-        <v>0.6231659717740663</v>
+        <v>0.5983432984790971</v>
       </c>
     </row>
     <row r="272">
@@ -8720,14 +8720,14 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Best PE _CS_12m</t>
+          <t>3MTR_TS_60m</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>-0.6512078499801541</v>
+        <v>-0.6125767850577175</v>
       </c>
       <c r="H276" t="n">
-        <v>0.6512078499801541</v>
+        <v>0.6125767850577175</v>
       </c>
     </row>
     <row r="277">
@@ -8750,14 +8750,14 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>3MTR_TS_60m</t>
+          <t>Positive PE _TS_60m</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>-0.6125767850577175</v>
+        <v>-0.610321082770325</v>
       </c>
       <c r="H277" t="n">
-        <v>0.6125767850577175</v>
+        <v>0.610321082770325</v>
       </c>
     </row>
     <row r="278">
@@ -8780,14 +8780,14 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Positive PE _TS_60m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>-0.610321082770325</v>
+        <v>0.6055029898039046</v>
       </c>
       <c r="H278" t="n">
-        <v>0.610321082770325</v>
+        <v>0.6055029898039046</v>
       </c>
     </row>
     <row r="279">
@@ -8810,14 +8810,14 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>120MA Signal_TS_60m</t>
+          <t>Debt to EV_TS_60m</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.6055029898039046</v>
+        <v>-0.5489306567717919</v>
       </c>
       <c r="H279" t="n">
-        <v>0.6055029898039046</v>
+        <v>0.5489306567717919</v>
       </c>
     </row>
     <row r="280">
@@ -8840,14 +8840,14 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>12MTR_TS_3m</t>
+          <t>Copper 12_CS_60m</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.5722449412030308</v>
+        <v>-0.5419513489027445</v>
       </c>
       <c r="H280" t="n">
-        <v>0.5722449412030308</v>
+        <v>0.5419513489027445</v>
       </c>
     </row>
     <row r="281">
@@ -8870,14 +8870,14 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Positive PE _CS_12m</t>
+          <t>Debt to GDP_CS_60m</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>-0.5561348510024605</v>
+        <v>-0.5414175105071789</v>
       </c>
       <c r="H281" t="n">
-        <v>0.5561348510024605</v>
+        <v>0.5414175105071789</v>
       </c>
     </row>
     <row r="282">
@@ -8900,14 +8900,14 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Best PE _TS</t>
+          <t>Best Div Yield_TS_60m</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.7445719241886311</v>
+        <v>0.3247303892473464</v>
       </c>
       <c r="H282" t="n">
-        <v>0.7445719241886311</v>
+        <v>0.3247303892473464</v>
       </c>
     </row>
     <row r="283">
@@ -8930,14 +8930,14 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Positive PE _CS</t>
+          <t>Best Price Sales_TS_60m</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.580653258820959</v>
+        <v>0.3019403255554544</v>
       </c>
       <c r="H283" t="n">
-        <v>0.580653258820959</v>
+        <v>0.3019403255554544</v>
       </c>
     </row>
     <row r="284">
@@ -8960,14 +8960,14 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Positive PE _TS_3m</t>
+          <t>120MA Signal_CS_60m</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.5701571743807464</v>
+        <v>-0.2665486943145567</v>
       </c>
       <c r="H284" t="n">
-        <v>0.5701571743807464</v>
+        <v>0.2665486943145567</v>
       </c>
     </row>
     <row r="285">
@@ -8990,14 +8990,14 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Best Div Yield_TS</t>
+          <t>PX_LAST_TS_60m</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.553585415658511</v>
+        <v>-0.2460711884886312</v>
       </c>
       <c r="H285" t="n">
-        <v>0.553585415658511</v>
+        <v>0.2460711884886312</v>
       </c>
     </row>
     <row r="286">
@@ -9020,14 +9020,14 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Best PE _CS</t>
+          <t>Best PE _TS_60m</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.5052392875970046</v>
+        <v>0.239871981726285</v>
       </c>
       <c r="H286" t="n">
-        <v>0.5052392875970046</v>
+        <v>0.239871981726285</v>
       </c>
     </row>
     <row r="287">
@@ -9050,14 +9050,14 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>12MTR_CS</t>
+          <t>P2P_CS_60m</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>-0.4771930746086523</v>
+        <v>0.2240213425236782</v>
       </c>
       <c r="H287" t="n">
-        <v>0.4771930746086523</v>
+        <v>0.2240213425236782</v>
       </c>
     </row>
     <row r="288">
@@ -9080,14 +9080,14 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>EV to EBITDA_CS</t>
+          <t>Tot Return Index _TS_60m</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.4649453054661071</v>
+        <v>-0.2227195792641758</v>
       </c>
       <c r="H288" t="n">
-        <v>0.4649453054661071</v>
+        <v>0.2227195792641758</v>
       </c>
     </row>
     <row r="289">
@@ -9110,14 +9110,14 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Earnings Yield_TS</t>
+          <t>Oil 12_CS_60m</t>
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.4627215502400388</v>
+        <v>0.2111209110421952</v>
       </c>
       <c r="H289" t="n">
-        <v>0.4627215502400388</v>
+        <v>0.2111209110421952</v>
       </c>
     </row>
     <row r="290">
@@ -9140,14 +9140,14 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>10Yr Bond_TS</t>
+          <t>Debt to EV_CS_60m</t>
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.4608390239156771</v>
+        <v>0.2000889659911796</v>
       </c>
       <c r="H290" t="n">
-        <v>0.4608390239156771</v>
+        <v>0.2000889659911796</v>
       </c>
     </row>
     <row r="291">
@@ -9170,14 +9170,14 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Trailing PE_CS</t>
+          <t>MCAP Adj_TS_60m</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.4606149077346276</v>
+        <v>-0.1923773557433092</v>
       </c>
       <c r="H291" t="n">
-        <v>0.4606149077346276</v>
+        <v>0.1923773557433092</v>
       </c>
     </row>
     <row r="292">
@@ -9200,14 +9200,14 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>PX_LAST_CS_3m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.9287276162081364</v>
+        <v>0.5673602430632999</v>
       </c>
       <c r="H292" t="n">
-        <v>0.9287276162081364</v>
+        <v>0.5673602430632999</v>
       </c>
     </row>
     <row r="293">
@@ -9230,14 +9230,14 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>120MA_CS_3m</t>
+          <t>Tot Return Index _CS_60m</t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.6265823831949887</v>
+        <v>0.5670340618878688</v>
       </c>
       <c r="H293" t="n">
-        <v>0.6265823831949887</v>
+        <v>0.5670340618878688</v>
       </c>
     </row>
     <row r="294">
@@ -9260,14 +9260,14 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Trailing EPS_CS_60m</t>
+          <t>Agriculture 12_CS_60m</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.5673602430632999</v>
+        <v>0.4456863487696704</v>
       </c>
       <c r="H294" t="n">
-        <v>0.5673602430632999</v>
+        <v>0.4456863487696704</v>
       </c>
     </row>
     <row r="295">
@@ -9290,14 +9290,14 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS_60m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.5670340618878688</v>
+        <v>0.3959943502634085</v>
       </c>
       <c r="H295" t="n">
-        <v>0.5670340618878688</v>
+        <v>0.3959943502634085</v>
       </c>
     </row>
     <row r="296">
@@ -9320,14 +9320,14 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS</t>
+          <t>Inflation_TS_60m</t>
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.5108609338642598</v>
+        <v>-0.3873180846914748</v>
       </c>
       <c r="H296" t="n">
-        <v>0.5108609338642598</v>
+        <v>0.3873180846914748</v>
       </c>
     </row>
     <row r="297">
@@ -9350,14 +9350,14 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS_12m</t>
+          <t>Advance Decline_TS_60m</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.5060130253160162</v>
+        <v>0.3763130185872801</v>
       </c>
       <c r="H297" t="n">
-        <v>0.5060130253160162</v>
+        <v>0.3763130185872801</v>
       </c>
     </row>
     <row r="298">
@@ -9380,14 +9380,14 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>PX_LAST_CS</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.4954085284081397</v>
+        <v>-0.3724663135162594</v>
       </c>
       <c r="H298" t="n">
-        <v>0.4954085284081397</v>
+        <v>0.3724663135162594</v>
       </c>
     </row>
     <row r="299">
@@ -9410,14 +9410,14 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>12-1MTR_CS_3m</t>
+          <t>120MA Signal_CS_60m</t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.4532375145435134</v>
+        <v>0.3156257694898253</v>
       </c>
       <c r="H299" t="n">
-        <v>0.4532375145435134</v>
+        <v>0.3156257694898253</v>
       </c>
     </row>
     <row r="300">
@@ -9440,14 +9440,14 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Agriculture 12_CS_60m</t>
+          <t>Copper 12_CS_60m</t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.4456863487696704</v>
+        <v>0.3098775587643804</v>
       </c>
       <c r="H300" t="n">
-        <v>0.4456863487696704</v>
+        <v>0.3098775587643804</v>
       </c>
     </row>
     <row r="301">
@@ -9470,14 +9470,14 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>PX_LAST_CS_12m</t>
+          <t>Current Account_TS_60m</t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.4435777827017441</v>
+        <v>-0.2833462939949227</v>
       </c>
       <c r="H301" t="n">
-        <v>0.4435777827017441</v>
+        <v>0.2833462939949227</v>
       </c>
     </row>
     <row r="302">
@@ -9500,14 +9500,14 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Best Price Sales_CS_12m</t>
+          <t>20 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G302" t="n">
-        <v>-0.6216628413275427</v>
+        <v>0.565312160298429</v>
       </c>
       <c r="H302" t="n">
-        <v>0.6216628413275427</v>
+        <v>0.565312160298429</v>
       </c>
     </row>
     <row r="303">
@@ -9530,14 +9530,14 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Trailing PE_CS_12m</t>
+          <t>Inflation_CS_60m</t>
         </is>
       </c>
       <c r="G303" t="n">
-        <v>-0.5756978226581734</v>
+        <v>0.5486159372150161</v>
       </c>
       <c r="H303" t="n">
-        <v>0.5756978226581734</v>
+        <v>0.5486159372150161</v>
       </c>
     </row>
     <row r="304">
@@ -9560,14 +9560,14 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Earnings Yield_CS_12m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>-0.5725460531803699</v>
+        <v>0.543600030928462</v>
       </c>
       <c r="H304" t="n">
-        <v>0.5725460531803699</v>
+        <v>0.543600030928462</v>
       </c>
     </row>
     <row r="305">
@@ -9590,14 +9590,14 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>20 Day Vol_CS_60m</t>
+          <t>1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.565312160298429</v>
+        <v>0.5392810905379557</v>
       </c>
       <c r="H305" t="n">
-        <v>0.565312160298429</v>
+        <v>0.5392810905379557</v>
       </c>
     </row>
     <row r="306">
@@ -9620,14 +9620,14 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>P2P_CS_12m</t>
+          <t>REER_TS_60m</t>
         </is>
       </c>
       <c r="G306" t="n">
-        <v>-0.5511828267940679</v>
+        <v>-0.5221407043218608</v>
       </c>
       <c r="H306" t="n">
-        <v>0.5511828267940679</v>
+        <v>0.5221407043218608</v>
       </c>
     </row>
     <row r="307">
@@ -9650,14 +9650,14 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Inflation_CS_60m</t>
+          <t>Currency 12_CS_60m</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.5486159372150161</v>
+        <v>0.5194351134161028</v>
       </c>
       <c r="H307" t="n">
-        <v>0.5486159372150161</v>
+        <v>0.5194351134161028</v>
       </c>
     </row>
     <row r="308">
@@ -9680,14 +9680,14 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Currency_TS_60m</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.543600030928462</v>
+        <v>-0.5193158873691814</v>
       </c>
       <c r="H308" t="n">
-        <v>0.543600030928462</v>
+        <v>0.5193158873691814</v>
       </c>
     </row>
     <row r="309">
@@ -9710,14 +9710,14 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Debt to EV_CS_12m</t>
+          <t>Bloom Country Risk_CS_60m</t>
         </is>
       </c>
       <c r="G309" t="n">
-        <v>-0.5394534765340816</v>
+        <v>0.5180721802811937</v>
       </c>
       <c r="H309" t="n">
-        <v>0.5394534765340816</v>
+        <v>0.5180721802811937</v>
       </c>
     </row>
     <row r="310">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>1MTR_TS_60m</t>
+          <t>Currency Vol_TS_60m</t>
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.5392810905379557</v>
+        <v>0.5006524401566713</v>
       </c>
       <c r="H310" t="n">
-        <v>0.5392810905379557</v>
+        <v>0.5006524401566713</v>
       </c>
     </row>
     <row r="311">
@@ -9770,14 +9770,14 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Positive PE _TS_12m</t>
+          <t>Best Price Sales_TS_60m</t>
         </is>
       </c>
       <c r="G311" t="n">
-        <v>-0.5381938799807905</v>
+        <v>0.4672402464290846</v>
       </c>
       <c r="H311" t="n">
-        <v>0.5381938799807905</v>
+        <v>0.4672402464290846</v>
       </c>
     </row>
     <row r="312">
@@ -9800,14 +9800,14 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Oil_CS_12m</t>
+          <t>Gold_CS_60m</t>
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.8824911962224754</v>
+        <v>0.6461621332286788</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8824911962224754</v>
+        <v>0.6461621332286788</v>
       </c>
     </row>
     <row r="313">
@@ -9830,14 +9830,14 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Agriculture 12_TS_12m</t>
+          <t>Agriculture_TS_60m</t>
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H313" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="314">
@@ -9860,14 +9860,14 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Agriculture_TS_12m</t>
+          <t>Copper 12_TS_60m</t>
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H314" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="315">
@@ -9890,14 +9890,14 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Copper 12_TS_12m</t>
+          <t>Copper_TS_60m</t>
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H315" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="316">
@@ -9920,14 +9920,14 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Copper_TS_12m</t>
+          <t>Gold 12_TS_60m</t>
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H316" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="317">
@@ -9950,14 +9950,14 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Gold 12_TS_12m</t>
+          <t>Gold_TS_60m</t>
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H317" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="318">
@@ -9980,14 +9980,14 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Gold_TS_12m</t>
+          <t>Oil 12_TS_60m</t>
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H318" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="319">
@@ -10010,14 +10010,14 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Oil 12_TS_12m</t>
+          <t>Oil_TS_60m</t>
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
       <c r="H319" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687492</v>
       </c>
     </row>
     <row r="320">
@@ -10040,14 +10040,14 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Oil_TS_12m</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687491</v>
       </c>
       <c r="H320" t="n">
-        <v>0.8705235335169602</v>
+        <v>0.5729658135687491</v>
       </c>
     </row>
     <row r="321">
@@ -10070,14 +10070,14 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Gold_CS_12m</t>
+          <t>Copper_CS_60m</t>
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.8446595935234364</v>
+        <v>0.552007057637358</v>
       </c>
       <c r="H321" t="n">
-        <v>0.8446595935234364</v>
+        <v>0.552007057637358</v>
       </c>
     </row>
     <row r="322">
@@ -10100,14 +10100,14 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>120MA Signal_CS_12m</t>
+          <t>Mcap Weights_TS_60m</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.9225817448788997</v>
+        <v>0.7660897610408629</v>
       </c>
       <c r="H322" t="n">
-        <v>0.9225817448788997</v>
+        <v>0.7660897610408629</v>
       </c>
     </row>
     <row r="323">
@@ -10130,14 +10130,14 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_12m</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.9162317122411215</v>
+        <v>-0.7640199203673443</v>
       </c>
       <c r="H323" t="n">
-        <v>0.9162317122411215</v>
+        <v>0.7640199203673443</v>
       </c>
     </row>
     <row r="324">
@@ -10160,14 +10160,14 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>PX_LAST_TS_12m</t>
+          <t>Inflation_TS_60m</t>
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.8819013974542622</v>
+        <v>-0.7406934899458631</v>
       </c>
       <c r="H324" t="n">
-        <v>0.8819013974542622</v>
+        <v>0.7406934899458631</v>
       </c>
     </row>
     <row r="325">
@@ -10190,14 +10190,14 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Tot Return Index _TS_12m</t>
+          <t>Operating Margin_TS_60m</t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.8763575172740777</v>
+        <v>0.7377169427079364</v>
       </c>
       <c r="H325" t="n">
-        <v>0.8763575172740777</v>
+        <v>0.7377169427079364</v>
       </c>
     </row>
     <row r="326">
@@ -10220,14 +10220,14 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>120MA Signal_TS_12m</t>
+          <t>Debt to EV_TS_60m</t>
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.8720933688925603</v>
+        <v>-0.722206205711674</v>
       </c>
       <c r="H326" t="n">
-        <v>0.8720933688925603</v>
+        <v>0.722206205711674</v>
       </c>
     </row>
     <row r="327">
@@ -10250,14 +10250,14 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Shiller PE_CS_12m</t>
+          <t>Shiller PE_TS_60m</t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>-0.8645639730975223</v>
+        <v>-0.7014407411463222</v>
       </c>
       <c r="H327" t="n">
-        <v>0.8645639730975223</v>
+        <v>0.7014407411463222</v>
       </c>
     </row>
     <row r="328">
@@ -10280,14 +10280,14 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>MCAP_TS_12m</t>
+          <t>Bloom Country Risk_TS_60m</t>
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.7942303771650442</v>
+        <v>-0.6807931903334811</v>
       </c>
       <c r="H328" t="n">
-        <v>0.7942303771650442</v>
+        <v>0.6807931903334811</v>
       </c>
     </row>
     <row r="329">
@@ -10310,14 +10310,14 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>MCAP_CS_12m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.778441288717747</v>
+        <v>-0.6768048134697845</v>
       </c>
       <c r="H329" t="n">
-        <v>0.778441288717747</v>
+        <v>0.6768048134697845</v>
       </c>
     </row>
     <row r="330">
@@ -10340,14 +10340,14 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS_12m</t>
+          <t>LT Growth_CS_60m</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.7732199138822108</v>
+        <v>-0.6624057999200882</v>
       </c>
       <c r="H330" t="n">
-        <v>0.7732199138822108</v>
+        <v>0.6624057999200882</v>
       </c>
     </row>
     <row r="331">
@@ -10370,14 +10370,14 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Mcap Weights_TS_60m</t>
+          <t>12-1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.7660897610408629</v>
+        <v>-0.6618599112737078</v>
       </c>
       <c r="H331" t="n">
-        <v>0.7660897610408629</v>
+        <v>0.6618599112737078</v>
       </c>
     </row>
     <row r="332">
@@ -10400,14 +10400,14 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>20 Day Vol_TS_12m</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G332" t="n">
-        <v>-0.7337532885401269</v>
+        <v>-0.6733732762771902</v>
       </c>
       <c r="H332" t="n">
-        <v>0.7337532885401269</v>
+        <v>0.6733732762771902</v>
       </c>
     </row>
     <row r="333">
@@ -10430,14 +10430,14 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>3MTR_CS_12m</t>
+          <t>Currency Vol_TS_60m</t>
         </is>
       </c>
       <c r="G333" t="n">
-        <v>-0.7127849042865921</v>
+        <v>0.6609402242141034</v>
       </c>
       <c r="H333" t="n">
-        <v>0.7127849042865921</v>
+        <v>0.6609402242141034</v>
       </c>
     </row>
     <row r="334">
@@ -10460,14 +10460,14 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>P2P_TS_60m</t>
+          <t>P2P_CS_60m</t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>-0.6733732762771902</v>
+        <v>-0.6505814155838868</v>
       </c>
       <c r="H334" t="n">
-        <v>0.6733732762771902</v>
+        <v>0.6505814155838868</v>
       </c>
     </row>
     <row r="335">
@@ -10490,14 +10490,14 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Currency Vol_TS_60m</t>
+          <t>Advance Decline_TS_60m</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>0.6609402242141034</v>
+        <v>-0.6414895699638391</v>
       </c>
       <c r="H335" t="n">
-        <v>0.6609402242141034</v>
+        <v>0.6414895699638391</v>
       </c>
     </row>
     <row r="336">
@@ -10520,14 +10520,14 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>P2P_CS_60m</t>
+          <t>Gold_CS_60m</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>-0.6505814155838868</v>
+        <v>-0.6289254645236437</v>
       </c>
       <c r="H336" t="n">
-        <v>0.6505814155838868</v>
+        <v>0.6289254645236437</v>
       </c>
     </row>
     <row r="337">
@@ -10550,14 +10550,14 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Advance Decline_TS_60m</t>
+          <t>BEST EPS_TS_60m</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>-0.6414895699638391</v>
+        <v>-0.6121818545453926</v>
       </c>
       <c r="H337" t="n">
-        <v>0.6414895699638391</v>
+        <v>0.6121818545453926</v>
       </c>
     </row>
     <row r="338">
@@ -10580,14 +10580,14 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>3MTR_TS_12m</t>
+          <t>LT Growth_CS_60m</t>
         </is>
       </c>
       <c r="G338" t="n">
-        <v>-0.6344020482027437</v>
+        <v>-0.5938843772180218</v>
       </c>
       <c r="H338" t="n">
-        <v>0.6344020482027437</v>
+        <v>0.5938843772180218</v>
       </c>
     </row>
     <row r="339">
@@ -10610,14 +10610,14 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Gold_CS_60m</t>
+          <t>LT Growth_TS_60m</t>
         </is>
       </c>
       <c r="G339" t="n">
-        <v>-0.6289254645236437</v>
+        <v>-0.5114344379635962</v>
       </c>
       <c r="H339" t="n">
-        <v>0.6289254645236437</v>
+        <v>0.5114344379635962</v>
       </c>
     </row>
     <row r="340">
@@ -10640,14 +10640,14 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>BEST EPS_TS_60m</t>
+          <t>Oil_CS_60m</t>
         </is>
       </c>
       <c r="G340" t="n">
-        <v>-0.6121818545453926</v>
+        <v>-0.4923466027474327</v>
       </c>
       <c r="H340" t="n">
-        <v>0.6121818545453926</v>
+        <v>0.4923466027474327</v>
       </c>
     </row>
     <row r="341">
@@ -10670,14 +10670,14 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>P2P_TS_12m</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G341" t="n">
-        <v>-0.6082875177308762</v>
+        <v>-0.4833108168012289</v>
       </c>
       <c r="H341" t="n">
-        <v>0.6082875177308762</v>
+        <v>0.4833108168012289</v>
       </c>
     </row>
     <row r="342">
@@ -11600,14 +11600,14 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Mcap Weights_CS_12m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>-0.5613929639827363</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0.5613929639827363</v>
       </c>
     </row>
     <row r="373">
@@ -11630,14 +11630,14 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS_12m</t>
+          <t>LT Growth_CS_60m</t>
         </is>
       </c>
       <c r="G373" t="n">
-        <v>0.9292310842059353</v>
+        <v>-0.4898262054776389</v>
       </c>
       <c r="H373" t="n">
-        <v>0.9292310842059353</v>
+        <v>0.4898262054776389</v>
       </c>
     </row>
     <row r="374">
@@ -11660,14 +11660,14 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>MCAP_TS_12m</t>
+          <t>Inflation_TS_60m</t>
         </is>
       </c>
       <c r="G374" t="n">
-        <v>0.9233355557813343</v>
+        <v>-0.4597190662834792</v>
       </c>
       <c r="H374" t="n">
-        <v>0.9233355557813343</v>
+        <v>0.4597190662834792</v>
       </c>
     </row>
     <row r="375">
@@ -11690,14 +11690,14 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>MCAP_CS_12m</t>
+          <t>12-1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G375" t="n">
-        <v>0.9210035701573122</v>
+        <v>-0.4576945696285992</v>
       </c>
       <c r="H375" t="n">
-        <v>0.9210035701573122</v>
+        <v>0.4576945696285992</v>
       </c>
     </row>
     <row r="376">
@@ -11720,14 +11720,14 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Shiller PE_CS_12m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-0.800390678294737</v>
+        <v>-0.4412675312146763</v>
       </c>
       <c r="H376" t="n">
-        <v>0.800390678294737</v>
+        <v>0.4412675312146763</v>
       </c>
     </row>
     <row r="377">
@@ -11750,14 +11750,14 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>BEST EPS_TS_12m</t>
+          <t>REER_CS_60m</t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>0.7652106430141833</v>
+        <v>-0.4370392699463861</v>
       </c>
       <c r="H377" t="n">
-        <v>0.7652106430141833</v>
+        <v>0.4370392699463861</v>
       </c>
     </row>
     <row r="378">
@@ -11780,14 +11780,14 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Copper 12_CS_12m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G378" t="n">
-        <v>0.7643380086861541</v>
+        <v>-0.4273792180605637</v>
       </c>
       <c r="H378" t="n">
-        <v>0.7643380086861541</v>
+        <v>0.4273792180605637</v>
       </c>
     </row>
     <row r="379">
@@ -11810,14 +11810,14 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Trailing EPS_TS_12m</t>
+          <t>LT Growth_TS_60m</t>
         </is>
       </c>
       <c r="G379" t="n">
-        <v>0.7623995699221308</v>
+        <v>-0.4152196268592914</v>
       </c>
       <c r="H379" t="n">
-        <v>0.7623995699221308</v>
+        <v>0.4152196268592914</v>
       </c>
     </row>
     <row r="380">
@@ -11840,14 +11840,14 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Currency 12_CS_12m</t>
+          <t>10Yr Bond_CS_60m</t>
         </is>
       </c>
       <c r="G380" t="n">
-        <v>-0.7517102468447631</v>
+        <v>-0.4097138400856857</v>
       </c>
       <c r="H380" t="n">
-        <v>0.7517102468447631</v>
+        <v>0.4097138400856857</v>
       </c>
     </row>
     <row r="381">
@@ -11870,14 +11870,14 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>12MTR_TS_12m</t>
+          <t>GDP_CS_60m</t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>0.7446926220429798</v>
+        <v>-0.4007509551285651</v>
       </c>
       <c r="H381" t="n">
-        <v>0.7446926220429798</v>
+        <v>0.4007509551285651</v>
       </c>
     </row>
     <row r="382">
@@ -12200,14 +12200,14 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS_3m</t>
+          <t>GDP_CS_60m</t>
         </is>
       </c>
       <c r="G392" t="n">
-        <v>0.8224961510774425</v>
+        <v>-0.5045228541923577</v>
       </c>
       <c r="H392" t="n">
-        <v>0.8224961510774425</v>
+        <v>0.5045228541923577</v>
       </c>
     </row>
     <row r="393">
@@ -12230,14 +12230,14 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>BEST EPS_TS_3m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>0.8205045942383777</v>
+        <v>0.4890047752839081</v>
       </c>
       <c r="H393" t="n">
-        <v>0.8205045942383777</v>
+        <v>0.4890047752839081</v>
       </c>
     </row>
     <row r="394">
@@ -12260,14 +12260,14 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>MCAP_TS_3m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G394" t="n">
-        <v>0.8158207055476581</v>
+        <v>-0.4834482737317837</v>
       </c>
       <c r="H394" t="n">
-        <v>0.8158207055476581</v>
+        <v>0.4834482737317837</v>
       </c>
     </row>
     <row r="395">
@@ -12290,14 +12290,14 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>MCAP_CS_3m</t>
+          <t>Currency 12_TS_60m</t>
         </is>
       </c>
       <c r="G395" t="n">
-        <v>0.8011980183315124</v>
+        <v>-0.4570293431702758</v>
       </c>
       <c r="H395" t="n">
-        <v>0.8011980183315124</v>
+        <v>0.4570293431702758</v>
       </c>
     </row>
     <row r="396">
@@ -12320,14 +12320,14 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>120MA Signal_TS_3m</t>
+          <t>Debt to EV_TS_60m</t>
         </is>
       </c>
       <c r="G396" t="n">
-        <v>0.7645347848408547</v>
+        <v>-0.4361785612240411</v>
       </c>
       <c r="H396" t="n">
-        <v>0.7645347848408547</v>
+        <v>0.4361785612240411</v>
       </c>
     </row>
     <row r="397">
@@ -12350,14 +12350,14 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>PX_LAST_TS_3m</t>
+          <t>Currency 12_CS_60m</t>
         </is>
       </c>
       <c r="G397" t="n">
-        <v>0.7325235727710963</v>
+        <v>-0.426622129673595</v>
       </c>
       <c r="H397" t="n">
-        <v>0.7325235727710963</v>
+        <v>0.426622129673595</v>
       </c>
     </row>
     <row r="398">
@@ -12380,14 +12380,14 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Tot Return Index _TS_3m</t>
+          <t>Bloom Country Risk_TS_60m</t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>0.731657529134819</v>
+        <v>-0.4148047849328505</v>
       </c>
       <c r="H398" t="n">
-        <v>0.731657529134819</v>
+        <v>0.4148047849328505</v>
       </c>
     </row>
     <row r="399">
@@ -12410,14 +12410,14 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>MCAP Adj_CS_3m</t>
+          <t>Operating Margin_TS_60m</t>
         </is>
       </c>
       <c r="G399" t="n">
-        <v>0.703296284890926</v>
+        <v>0.4095503356540224</v>
       </c>
       <c r="H399" t="n">
-        <v>0.703296284890926</v>
+        <v>0.4095503356540224</v>
       </c>
     </row>
     <row r="400">
@@ -12440,14 +12440,14 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Mcap Weights_CS_3m</t>
+          <t>Mcap Weights_TS_60m</t>
         </is>
       </c>
       <c r="G400" t="n">
-        <v>0.703296284890926</v>
+        <v>0.4051479589565717</v>
       </c>
       <c r="H400" t="n">
-        <v>0.703296284890926</v>
+        <v>0.4051479589565717</v>
       </c>
     </row>
     <row r="401">
@@ -12470,14 +12470,14 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Gold_CS_3m</t>
+          <t>LT Growth_CS_60m</t>
         </is>
       </c>
       <c r="G401" t="n">
-        <v>0.69133133076664</v>
+        <v>-0.3957412032726526</v>
       </c>
       <c r="H401" t="n">
-        <v>0.69133133076664</v>
+        <v>0.3957412032726526</v>
       </c>
     </row>
     <row r="402">
@@ -12500,14 +12500,14 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>12-1MTR_CS</t>
+          <t>Trailing EPS 36_TS_60m</t>
         </is>
       </c>
       <c r="G402" t="n">
-        <v>0.9346622167897597</v>
+        <v>-0.2426237697512882</v>
       </c>
       <c r="H402" t="n">
-        <v>0.9346622167897597</v>
+        <v>0.2426237697512882</v>
       </c>
     </row>
     <row r="403">
@@ -12530,14 +12530,14 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>12MTR_TS</t>
+          <t>Advance Decline_CS_60m</t>
         </is>
       </c>
       <c r="G403" t="n">
-        <v>0.8943881935813419</v>
+        <v>0.2142531931154093</v>
       </c>
       <c r="H403" t="n">
-        <v>0.8943881935813419</v>
+        <v>0.2142531931154093</v>
       </c>
     </row>
     <row r="404">
@@ -12560,14 +12560,14 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>12-1MTR_TS</t>
+          <t>Budget Def_TS_60m</t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>0.8528044469704343</v>
+        <v>-0.1947532420625866</v>
       </c>
       <c r="H404" t="n">
-        <v>0.8528044469704343</v>
+        <v>0.1947532420625866</v>
       </c>
     </row>
     <row r="405">
@@ -12590,14 +12590,14 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>12MTR_CS_3m</t>
+          <t>360 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G405" t="n">
-        <v>0.5837246472296395</v>
+        <v>-0.1939059383657073</v>
       </c>
       <c r="H405" t="n">
-        <v>0.5837246472296395</v>
+        <v>0.1939059383657073</v>
       </c>
     </row>
     <row r="406">
@@ -12620,14 +12620,14 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>12-1MTR_TS_3m</t>
+          <t>Currency_CS_60m</t>
         </is>
       </c>
       <c r="G406" t="n">
-        <v>0.5730419639449011</v>
+        <v>0.1884337406532346</v>
       </c>
       <c r="H406" t="n">
-        <v>0.5730419639449011</v>
+        <v>0.1884337406532346</v>
       </c>
     </row>
     <row r="407">
@@ -12650,14 +12650,14 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>12-1MTR_CS_3m</t>
+          <t>10Yr Bond 12_CS_60m</t>
         </is>
       </c>
       <c r="G407" t="n">
-        <v>0.5728613148484258</v>
+        <v>-0.1855421947186738</v>
       </c>
       <c r="H407" t="n">
-        <v>0.5728613148484258</v>
+        <v>0.1855421947186738</v>
       </c>
     </row>
     <row r="408">
@@ -12680,14 +12680,14 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>PX_LAST_TS</t>
+          <t>P2P_TS_60m</t>
         </is>
       </c>
       <c r="G408" t="n">
-        <v>0.546528340493271</v>
+        <v>0.1829299726943783</v>
       </c>
       <c r="H408" t="n">
-        <v>0.546528340493271</v>
+        <v>0.1829299726943783</v>
       </c>
     </row>
     <row r="409">
@@ -12710,14 +12710,14 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>12MTR_TS_3m</t>
+          <t>MCAP_TS_60m</t>
         </is>
       </c>
       <c r="G409" t="n">
-        <v>0.5439906163282772</v>
+        <v>0.1782793786539998</v>
       </c>
       <c r="H409" t="n">
-        <v>0.5439906163282772</v>
+        <v>0.1782793786539998</v>
       </c>
     </row>
     <row r="410">
@@ -12740,14 +12740,14 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Tot Return Index _TS</t>
+          <t>Bloom Country Risk_CS_60m</t>
         </is>
       </c>
       <c r="G410" t="n">
-        <v>0.5410008169526899</v>
+        <v>0.1775563262498043</v>
       </c>
       <c r="H410" t="n">
-        <v>0.5410008169526899</v>
+        <v>0.1775563262498043</v>
       </c>
     </row>
     <row r="411">
@@ -12770,14 +12770,14 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>1MTR_CS</t>
+          <t>MCAP Adj_TS_60m</t>
         </is>
       </c>
       <c r="G411" t="n">
-        <v>-0.5245861299643539</v>
+        <v>0.1773163569113652</v>
       </c>
       <c r="H411" t="n">
-        <v>0.5245861299643539</v>
+        <v>0.1773163569113652</v>
       </c>
     </row>
     <row r="412">
@@ -12800,14 +12800,14 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>3MTR_CS_12m</t>
+          <t>Best Div Yield_TS_60m</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>0.806147263338871</v>
+        <v>0.763986796100468</v>
       </c>
       <c r="H412" t="n">
-        <v>0.806147263338871</v>
+        <v>0.763986796100468</v>
       </c>
     </row>
     <row r="413">
@@ -12830,14 +12830,14 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>1MTR_CS_12m</t>
+          <t>EV to EBITDA_TS_60m</t>
         </is>
       </c>
       <c r="G413" t="n">
-        <v>0.7795637907043423</v>
+        <v>0.7112769641536694</v>
       </c>
       <c r="H413" t="n">
-        <v>0.7795637907043423</v>
+        <v>0.7112769641536694</v>
       </c>
     </row>
     <row r="414">
@@ -12860,14 +12860,14 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>EV to EBITDA_CS_12m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G414" t="n">
-        <v>0.7686191261709618</v>
+        <v>0.7095240392047165</v>
       </c>
       <c r="H414" t="n">
-        <v>0.7686191261709618</v>
+        <v>0.7095240392047165</v>
       </c>
     </row>
     <row r="415">
@@ -12890,14 +12890,14 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Best Div Yield_TS_60m</t>
+          <t>Currency 12_TS_60m</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>0.763986796100468</v>
+        <v>0.6977977500094071</v>
       </c>
       <c r="H415" t="n">
-        <v>0.763986796100468</v>
+        <v>0.6977977500094071</v>
       </c>
     </row>
     <row r="416">
@@ -12920,14 +12920,14 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Best Price Sales_TS_12m</t>
+          <t>Debt to EV_TS_60m</t>
         </is>
       </c>
       <c r="G416" t="n">
-        <v>0.7194046284592917</v>
+        <v>0.6846729028209518</v>
       </c>
       <c r="H416" t="n">
-        <v>0.7194046284592917</v>
+        <v>0.6846729028209518</v>
       </c>
     </row>
     <row r="417">
@@ -12950,14 +12950,14 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>EV to EBITDA_TS_60m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G417" t="n">
-        <v>0.7112769641536694</v>
+        <v>0.6736452653935244</v>
       </c>
       <c r="H417" t="n">
-        <v>0.7112769641536694</v>
+        <v>0.6736452653935244</v>
       </c>
     </row>
     <row r="418">
@@ -12980,14 +12980,14 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_60m</t>
+          <t>MCAP Adj_CS_60m</t>
         </is>
       </c>
       <c r="G418" t="n">
-        <v>0.7095240392047165</v>
+        <v>-0.6653607858966513</v>
       </c>
       <c r="H418" t="n">
-        <v>0.7095240392047165</v>
+        <v>0.6653607858966513</v>
       </c>
     </row>
     <row r="419">
@@ -13010,14 +13010,14 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>EV to EBITDA_TS_12m</t>
+          <t>Mcap Weights_CS_60m</t>
         </is>
       </c>
       <c r="G419" t="n">
-        <v>0.701343718690607</v>
+        <v>-0.6653607858966513</v>
       </c>
       <c r="H419" t="n">
-        <v>0.701343718690607</v>
+        <v>0.6653607858966513</v>
       </c>
     </row>
     <row r="420">
@@ -13040,14 +13040,14 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Currency 12_TS_60m</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G420" t="n">
-        <v>0.6977977500094071</v>
+        <v>-0.6609644264951346</v>
       </c>
       <c r="H420" t="n">
-        <v>0.6977977500094071</v>
+        <v>0.6609644264951346</v>
       </c>
     </row>
     <row r="421">
@@ -13070,14 +13070,14 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_12m</t>
+          <t>Advance Decline_CS_60m</t>
         </is>
       </c>
       <c r="G421" t="n">
-        <v>0.6963912523161034</v>
+        <v>-0.6600328104391942</v>
       </c>
       <c r="H421" t="n">
-        <v>0.6963912523161034</v>
+        <v>0.6600328104391942</v>
       </c>
     </row>
     <row r="422">
@@ -13100,14 +13100,14 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Agriculture 12_TS</t>
+          <t>Oil_CS_60m</t>
         </is>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>0.3965594263013839</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0.3965594263013839</v>
       </c>
     </row>
     <row r="423">
@@ -13130,14 +13130,14 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Agriculture_TS</t>
+          <t>Agriculture_CS_60m</t>
         </is>
       </c>
       <c r="G423" t="n">
-        <v>1</v>
+        <v>0.3760814495399753</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0.3760814495399753</v>
       </c>
     </row>
     <row r="424">
@@ -13160,14 +13160,14 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Copper_TS</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>0.3694207646491062</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0.3694207646491062</v>
       </c>
     </row>
     <row r="425">
@@ -13190,14 +13190,14 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Gold 12_TS</t>
+          <t>Agriculture_TS_60m</t>
         </is>
       </c>
       <c r="G425" t="n">
-        <v>1</v>
+        <v>0.3694207646491062</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0.3694207646491062</v>
       </c>
     </row>
     <row r="426">
@@ -13220,14 +13220,14 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Gold_TS</t>
+          <t>Copper 12_TS_60m</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>0.3694207646491061</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0.3694207646491061</v>
       </c>
     </row>
     <row r="427">
@@ -13250,14 +13250,14 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Oil 12_TS</t>
+          <t>Copper_TS_60m</t>
         </is>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>0.3694207646491061</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0.3694207646491061</v>
       </c>
     </row>
     <row r="428">
@@ -13280,14 +13280,14 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Oil_TS</t>
+          <t>Gold 12_TS_60m</t>
         </is>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>0.3694207646491061</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0.3694207646491061</v>
       </c>
     </row>
     <row r="429">
@@ -13310,14 +13310,14 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Agriculture_CS</t>
+          <t>Gold_TS_60m</t>
         </is>
       </c>
       <c r="G429" t="n">
-        <v>0.9399547275320691</v>
+        <v>0.3694207646491061</v>
       </c>
       <c r="H429" t="n">
-        <v>0.9399547275320691</v>
+        <v>0.3694207646491061</v>
       </c>
     </row>
     <row r="430">
@@ -13340,14 +13340,14 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Copper_CS</t>
+          <t>Oil 12_TS_60m</t>
         </is>
       </c>
       <c r="G430" t="n">
-        <v>0.9356361608135643</v>
+        <v>0.3694207646491061</v>
       </c>
       <c r="H430" t="n">
-        <v>0.9356361608135643</v>
+        <v>0.3694207646491061</v>
       </c>
     </row>
     <row r="431">
@@ -13370,14 +13370,14 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Oil_CS</t>
+          <t>Oil_TS_60m</t>
         </is>
       </c>
       <c r="G431" t="n">
-        <v>0.930212193726388</v>
+        <v>0.3694207646491061</v>
       </c>
       <c r="H431" t="n">
-        <v>0.930212193726388</v>
+        <v>0.3694207646491061</v>
       </c>
     </row>
     <row r="432">
@@ -13400,14 +13400,14 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Agriculture 12_TS_3m</t>
+          <t>RSI14_TS_60m</t>
         </is>
       </c>
       <c r="G432" t="n">
-        <v>1</v>
+        <v>-0.5788735436012292</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0.5788735436012292</v>
       </c>
     </row>
     <row r="433">
@@ -13430,14 +13430,14 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Agriculture_TS_3m</t>
+          <t>Oil_CS_60m</t>
         </is>
       </c>
       <c r="G433" t="n">
-        <v>1</v>
+        <v>0.5486557544891619</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0.5486557544891619</v>
       </c>
     </row>
     <row r="434">
@@ -13460,14 +13460,14 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Copper 12_TS_3m</t>
+          <t>Agriculture 12_TS_60m</t>
         </is>
       </c>
       <c r="G434" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="435">
@@ -13490,14 +13490,14 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Gold 12_TS_3m</t>
+          <t>Agriculture_TS_60m</t>
         </is>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="436">
@@ -13520,14 +13520,14 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Gold_TS_3m</t>
+          <t>Copper 12_TS_60m</t>
         </is>
       </c>
       <c r="G436" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="437">
@@ -13550,14 +13550,14 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Oil 12_TS_3m</t>
+          <t>Copper_TS_60m</t>
         </is>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="438">
@@ -13580,14 +13580,14 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Oil_TS_3m</t>
+          <t>Gold 12_TS_60m</t>
         </is>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="439">
@@ -13610,14 +13610,14 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Agriculture_CS_3m</t>
+          <t>Gold_TS_60m</t>
         </is>
       </c>
       <c r="G439" t="n">
-        <v>0.9389033979699494</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H439" t="n">
-        <v>0.9389033979699494</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="440">
@@ -13640,14 +13640,14 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Copper_CS_3m</t>
+          <t>Oil 12_TS_60m</t>
         </is>
       </c>
       <c r="G440" t="n">
-        <v>0.8922000034109593</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H440" t="n">
-        <v>0.8922000034109593</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="441">
@@ -13670,14 +13670,14 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Oil_CS_3m</t>
+          <t>Oil_TS_60m</t>
         </is>
       </c>
       <c r="G441" t="n">
-        <v>0.8908366502916896</v>
+        <v>0.5079101534541897</v>
       </c>
       <c r="H441" t="n">
-        <v>0.8908366502916896</v>
+        <v>0.5079101534541897</v>
       </c>
     </row>
     <row r="442">
@@ -13820,14 +13820,14 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Best Price Sales_CS_12m</t>
+          <t>1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G446" t="n">
-        <v>0.7812056617382477</v>
+        <v>0.7751797733697681</v>
       </c>
       <c r="H446" t="n">
-        <v>0.7812056617382477</v>
+        <v>0.7751797733697681</v>
       </c>
     </row>
     <row r="447">
@@ -13850,14 +13850,14 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>1MTR_TS_60m</t>
+          <t>Best PE _CS_60m</t>
         </is>
       </c>
       <c r="G447" t="n">
-        <v>0.7751797733697681</v>
+        <v>0.7098846098038357</v>
       </c>
       <c r="H447" t="n">
-        <v>0.7751797733697681</v>
+        <v>0.7098846098038357</v>
       </c>
     </row>
     <row r="448">
@@ -13880,14 +13880,14 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Debt to GDP_TS_12m</t>
+          <t>10Yr Bond_CS_60m</t>
         </is>
       </c>
       <c r="G448" t="n">
-        <v>0.7653205994014639</v>
+        <v>0.7094251005448412</v>
       </c>
       <c r="H448" t="n">
-        <v>0.7653205994014639</v>
+        <v>0.7094251005448412</v>
       </c>
     </row>
     <row r="449">
@@ -13910,14 +13910,14 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Tot Return Index _CS_12m</t>
+          <t>Best PBK_TS_60m</t>
         </is>
       </c>
       <c r="G449" t="n">
-        <v>0.7455515678220279</v>
+        <v>0.7026585341539183</v>
       </c>
       <c r="H449" t="n">
-        <v>0.7455515678220279</v>
+        <v>0.7026585341539183</v>
       </c>
     </row>
     <row r="450">
@@ -13940,14 +13940,14 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Positive PE _CS_12m</t>
+          <t>20 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G450" t="n">
-        <v>0.7312576866185179</v>
+        <v>0.6979339489151927</v>
       </c>
       <c r="H450" t="n">
-        <v>0.7312576866185179</v>
+        <v>0.6979339489151927</v>
       </c>
     </row>
     <row r="451">
@@ -13970,14 +13970,14 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_12m</t>
+          <t>REER_TS_60m</t>
         </is>
       </c>
       <c r="G451" t="n">
-        <v>0.7291329140792829</v>
+        <v>0.6898292837866913</v>
       </c>
       <c r="H451" t="n">
-        <v>0.7291329140792829</v>
+        <v>0.6898292837866913</v>
       </c>
     </row>
     <row r="452">
@@ -14000,14 +14000,14 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Trailing PE_CS_3m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G452" t="n">
-        <v>0.8628507322326432</v>
+        <v>-0.5595222402237006</v>
       </c>
       <c r="H452" t="n">
-        <v>0.8628507322326432</v>
+        <v>0.5595222402237006</v>
       </c>
     </row>
     <row r="453">
@@ -14030,14 +14030,14 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Earnings Yield_CS_3m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G453" t="n">
-        <v>0.8610247162737562</v>
+        <v>0.5347755852760521</v>
       </c>
       <c r="H453" t="n">
-        <v>0.8610247162737562</v>
+        <v>0.5347755852760521</v>
       </c>
     </row>
     <row r="454">
@@ -14060,14 +14060,14 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Trailing PE_TS_3m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G454" t="n">
-        <v>0.8226675503365564</v>
+        <v>0.5217576625795218</v>
       </c>
       <c r="H454" t="n">
-        <v>0.8226675503365564</v>
+        <v>0.5217576625795218</v>
       </c>
     </row>
     <row r="455">
@@ -14090,14 +14090,14 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Best Price Sales_TS_3m</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G455" t="n">
-        <v>0.754944199144528</v>
+        <v>-0.5185923846531914</v>
       </c>
       <c r="H455" t="n">
-        <v>0.754944199144528</v>
+        <v>0.5185923846531914</v>
       </c>
     </row>
     <row r="456">
@@ -14120,14 +14120,14 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Best PE _CS_3m</t>
+          <t>BEST EPS_TS_60m</t>
         </is>
       </c>
       <c r="G456" t="n">
-        <v>0.752583111129984</v>
+        <v>-0.4854080486282406</v>
       </c>
       <c r="H456" t="n">
-        <v>0.752583111129984</v>
+        <v>0.4854080486282406</v>
       </c>
     </row>
     <row r="457">
@@ -14150,14 +14150,14 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Best Div Yield_CS_3m</t>
+          <t>Best Div Yield_TS_60m</t>
         </is>
       </c>
       <c r="G457" t="n">
-        <v>0.7493610068956945</v>
+        <v>0.4740517546880228</v>
       </c>
       <c r="H457" t="n">
-        <v>0.7493610068956945</v>
+        <v>0.4740517546880228</v>
       </c>
     </row>
     <row r="458">
@@ -14180,14 +14180,14 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_3m</t>
+          <t>Best Cash Flow_TS_60m</t>
         </is>
       </c>
       <c r="G458" t="n">
-        <v>0.7436442024268382</v>
+        <v>0.4722369597041702</v>
       </c>
       <c r="H458" t="n">
-        <v>0.7436442024268382</v>
+        <v>0.4722369597041702</v>
       </c>
     </row>
     <row r="459">
@@ -14210,14 +14210,14 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>EV to EBITDA_CS_3m</t>
+          <t>MCAP_CS_60m</t>
         </is>
       </c>
       <c r="G459" t="n">
-        <v>0.7425207498427951</v>
+        <v>-0.4639412932280725</v>
       </c>
       <c r="H459" t="n">
-        <v>0.7425207498427951</v>
+        <v>0.4639412932280725</v>
       </c>
     </row>
     <row r="460">
@@ -14240,14 +14240,14 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Positive PE _CS_3m</t>
+          <t>360 Day Vol_CS_60m</t>
         </is>
       </c>
       <c r="G460" t="n">
-        <v>0.7173581428607855</v>
+        <v>0.432193772535316</v>
       </c>
       <c r="H460" t="n">
-        <v>0.7173581428607855</v>
+        <v>0.432193772535316</v>
       </c>
     </row>
     <row r="461">
@@ -14270,14 +14270,14 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_3m</t>
+          <t>Trailing EPS_TS_60m</t>
         </is>
       </c>
       <c r="G461" t="n">
-        <v>0.7071530724600712</v>
+        <v>-0.4296577138628124</v>
       </c>
       <c r="H461" t="n">
-        <v>0.7071530724600712</v>
+        <v>0.4296577138628124</v>
       </c>
     </row>
     <row r="462">
@@ -14300,14 +14300,14 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>P2P_TS</t>
+          <t>10Yr Bond 12_TS_60m</t>
         </is>
       </c>
       <c r="G462" t="n">
-        <v>0.7603080822709656</v>
+        <v>-0.2970298626494812</v>
       </c>
       <c r="H462" t="n">
-        <v>0.7603080822709656</v>
+        <v>0.2970298626494812</v>
       </c>
     </row>
     <row r="463">
@@ -14330,14 +14330,14 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>P2P_CS_3m</t>
+          <t>Best PE _TS_60m</t>
         </is>
       </c>
       <c r="G463" t="n">
-        <v>0.6620836049708746</v>
+        <v>-0.2834759761004387</v>
       </c>
       <c r="H463" t="n">
-        <v>0.6620836049708746</v>
+        <v>0.2834759761004387</v>
       </c>
     </row>
     <row r="464">
@@ -14360,14 +14360,14 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>P2P_TS_3m</t>
+          <t>10Yr Bond_CS_60m</t>
         </is>
       </c>
       <c r="G464" t="n">
-        <v>0.5950119477205396</v>
+        <v>-0.2749018513286254</v>
       </c>
       <c r="H464" t="n">
-        <v>0.5950119477205396</v>
+        <v>0.2749018513286254</v>
       </c>
     </row>
     <row r="465">
@@ -14390,14 +14390,14 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>20 Day Vol_CS</t>
+          <t>1MTR_TS_60m</t>
         </is>
       </c>
       <c r="G465" t="n">
-        <v>-0.4355082687042302</v>
+        <v>-0.2693790271641921</v>
       </c>
       <c r="H465" t="n">
-        <v>0.4355082687042302</v>
+        <v>0.2693790271641921</v>
       </c>
     </row>
     <row r="466">
@@ -14420,14 +14420,14 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>20 Day Vol_TS</t>
+          <t>Currency 12_CS_60m</t>
         </is>
       </c>
       <c r="G466" t="n">
-        <v>-0.4244216576936862</v>
+        <v>-0.264750860764377</v>
       </c>
       <c r="H466" t="n">
-        <v>0.4244216576936862</v>
+        <v>0.264750860764377</v>
       </c>
     </row>
     <row r="467">
@@ -14450,14 +14450,14 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Operating Margin_TS_3m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G467" t="n">
-        <v>0.3162814215557201</v>
+        <v>-0.2594889522226985</v>
       </c>
       <c r="H467" t="n">
-        <v>0.3162814215557201</v>
+        <v>0.2594889522226985</v>
       </c>
     </row>
     <row r="468">
@@ -14480,14 +14480,14 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>GDP_CS_12m</t>
+          <t>Shiller PE_CS_60m</t>
         </is>
       </c>
       <c r="G468" t="n">
-        <v>-0.3128554691758554</v>
+        <v>-0.2582830973023805</v>
       </c>
       <c r="H468" t="n">
-        <v>0.3128554691758554</v>
+        <v>0.2582830973023805</v>
       </c>
     </row>
     <row r="469">
@@ -14510,14 +14510,14 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>P2P_TS_12m</t>
+          <t>Current Account_CS_60m</t>
         </is>
       </c>
       <c r="G469" t="n">
-        <v>0.3110147739439338</v>
+        <v>0.2382460719182025</v>
       </c>
       <c r="H469" t="n">
-        <v>0.3110147739439338</v>
+        <v>0.2382460719182025</v>
       </c>
     </row>
     <row r="470">
@@ -14540,14 +14540,14 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Positive PE _CS_12m</t>
+          <t>1MTR_CS_60m</t>
         </is>
       </c>
       <c r="G470" t="n">
-        <v>-0.3067512521985254</v>
+        <v>-0.2367675747088989</v>
       </c>
       <c r="H470" t="n">
-        <v>0.3067512521985254</v>
+        <v>0.2367675747088989</v>
       </c>
     </row>
     <row r="471">
@@ -14570,14 +14570,14 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Best PE _TS</t>
+          <t>MCAP_TS_60m</t>
         </is>
       </c>
       <c r="G471" t="n">
-        <v>-0.2986034674744291</v>
+        <v>0.2363052412387928</v>
       </c>
       <c r="H471" t="n">
-        <v>0.2986034674744291</v>
+        <v>0.2363052412387928</v>
       </c>
     </row>
     <row r="472">
@@ -14600,14 +14600,14 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Best Cash Flow_CS_12m</t>
+          <t>Debt to EV_TS_60m</t>
         </is>
       </c>
       <c r="G472" t="n">
-        <v>0.9119168955568265</v>
+        <v>0.8463553624816456</v>
       </c>
       <c r="H472" t="n">
-        <v>0.9119168955568265</v>
+        <v>0.8463553624816456</v>
       </c>
     </row>
     <row r="473">
@@ -14630,14 +14630,14 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Best Price Sales_CS_12m</t>
+          <t>Best Div Yield_CS_60m</t>
         </is>
       </c>
       <c r="G473" t="n">
-        <v>0.9103787420143751</v>
+        <v>0.823341143476082</v>
       </c>
       <c r="H473" t="n">
-        <v>0.9103787420143751</v>
+        <v>0.823341143476082</v>
       </c>
     </row>
     <row r="474">
@@ -14660,14 +14660,14 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Best PE _CS_12m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G474" t="n">
-        <v>0.906158329633219</v>
+        <v>0.8139360213634013</v>
       </c>
       <c r="H474" t="n">
-        <v>0.906158329633219</v>
+        <v>0.8139360213634013</v>
       </c>
     </row>
     <row r="475">
@@ -14690,14 +14690,14 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Debt to EV_TS_60m</t>
+          <t>MCAP_TS_60m</t>
         </is>
       </c>
       <c r="G475" t="n">
-        <v>0.8463553624816456</v>
+        <v>-0.8076310424421635</v>
       </c>
       <c r="H475" t="n">
-        <v>0.8463553624816456</v>
+        <v>0.8076310424421635</v>
       </c>
     </row>
     <row r="476">
@@ -14720,14 +14720,14 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Earnings Yield_CS_12m</t>
+          <t>Debt to EV_CS_60m</t>
         </is>
       </c>
       <c r="G476" t="n">
-        <v>0.8254524701917009</v>
+        <v>0.8045376265252777</v>
       </c>
       <c r="H476" t="n">
-        <v>0.8254524701917009</v>
+        <v>0.8045376265252777</v>
       </c>
     </row>
     <row r="477">
@@ -14750,14 +14750,14 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Best Div Yield_CS_60m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G477" t="n">
-        <v>0.823341143476082</v>
+        <v>0.8011835287235196</v>
       </c>
       <c r="H477" t="n">
-        <v>0.823341143476082</v>
+        <v>0.8011835287235196</v>
       </c>
     </row>
     <row r="478">
@@ -14780,14 +14780,14 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>EV to EBITDA_CS_12m</t>
+          <t>MCAP Adj_TS_60m</t>
         </is>
       </c>
       <c r="G478" t="n">
-        <v>0.8187926367443333</v>
+        <v>-0.7998062617366847</v>
       </c>
       <c r="H478" t="n">
-        <v>0.8187926367443333</v>
+        <v>0.7998062617366847</v>
       </c>
     </row>
     <row r="479">
@@ -14810,14 +14810,14 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Trailing PE_CS_12m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G479" t="n">
-        <v>0.8172507181440277</v>
+        <v>0.7990684145305538</v>
       </c>
       <c r="H479" t="n">
-        <v>0.8172507181440277</v>
+        <v>0.7990684145305538</v>
       </c>
     </row>
     <row r="480">
@@ -14840,14 +14840,14 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Currency Vol_CS_60m</t>
+          <t>REER_TS_60m</t>
         </is>
       </c>
       <c r="G480" t="n">
-        <v>0.8139360213634013</v>
+        <v>0.797188171935034</v>
       </c>
       <c r="H480" t="n">
-        <v>0.8139360213634013</v>
+        <v>0.797188171935034</v>
       </c>
     </row>
     <row r="481">
@@ -14870,14 +14870,14 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>MCAP_TS_60m</t>
+          <t>Inflation_CS_60m</t>
         </is>
       </c>
       <c r="G481" t="n">
-        <v>-0.8076310424421635</v>
+        <v>0.7818713409768633</v>
       </c>
       <c r="H481" t="n">
-        <v>0.8076310424421635</v>
+        <v>0.7818713409768633</v>
       </c>
     </row>
     <row r="482">
@@ -14900,14 +14900,14 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Best PE _TS_12m</t>
+          <t>REER_TS_60m</t>
         </is>
       </c>
       <c r="G482" t="n">
-        <v>0.7602522021402751</v>
+        <v>0.6202308696747965</v>
       </c>
       <c r="H482" t="n">
-        <v>0.7602522021402751</v>
+        <v>0.6202308696747965</v>
       </c>
     </row>
     <row r="483">
@@ -14930,14 +14930,14 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>10Yr Bond_TS_12m</t>
+          <t>Operating Margin_CS_60m</t>
         </is>
       </c>
       <c r="G483" t="n">
-        <v>0.7430727901798294</v>
+        <v>0.5472461587256259</v>
       </c>
       <c r="H483" t="n">
-        <v>0.7430727901798294</v>
+        <v>0.5472461587256259</v>
       </c>
     </row>
     <row r="484">
@@ -14960,14 +14960,14 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Best Div Yield_CS_12m</t>
+          <t>BEST EPS_CS_60m</t>
         </is>
       </c>
       <c r="G484" t="n">
-        <v>0.7422521774025634</v>
+        <v>0.524907273488831</v>
       </c>
       <c r="H484" t="n">
-        <v>0.7422521774025634</v>
+        <v>0.524907273488831</v>
       </c>
     </row>
     <row r="485">
@@ -14990,14 +14990,14 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Positive PE _TS_12m</t>
+          <t>Best ROE_CS_60m</t>
         </is>
       </c>
       <c r="G485" t="n">
-        <v>0.7358679890989976</v>
+        <v>0.5247595710002919</v>
       </c>
       <c r="H485" t="n">
-        <v>0.7358679890989976</v>
+        <v>0.5247595710002919</v>
       </c>
     </row>
     <row r="486">
@@ -15020,14 +15020,14 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Debt to EV_CS_12m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G486" t="n">
-        <v>0.7163806094293791</v>
+        <v>0.5236357515699549</v>
       </c>
       <c r="H486" t="n">
-        <v>0.7163806094293791</v>
+        <v>0.5236357515699549</v>
       </c>
     </row>
     <row r="487">
@@ -15050,14 +15050,14 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Earnings Yield_CS_12m</t>
+          <t>MCAP_CS_60m</t>
         </is>
       </c>
       <c r="G487" t="n">
-        <v>0.7153851867611632</v>
+        <v>-0.5231405824359503</v>
       </c>
       <c r="H487" t="n">
-        <v>0.7153851867611632</v>
+        <v>0.5231405824359503</v>
       </c>
     </row>
     <row r="488">
@@ -15080,14 +15080,14 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Trailing PE_CS_12m</t>
+          <t>Trailing EPS_CS_60m</t>
         </is>
       </c>
       <c r="G488" t="n">
-        <v>0.7049152444521797</v>
+        <v>0.521821813628868</v>
       </c>
       <c r="H488" t="n">
-        <v>0.7049152444521797</v>
+        <v>0.521821813628868</v>
       </c>
     </row>
     <row r="489">
@@ -15110,14 +15110,14 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Trailing EPS_CS_12m</t>
+          <t>Currency Vol_CS_60m</t>
         </is>
       </c>
       <c r="G489" t="n">
-        <v>0.6911936975054666</v>
+        <v>0.4792548972051834</v>
       </c>
       <c r="H489" t="n">
-        <v>0.6911936975054666</v>
+        <v>0.4792548972051834</v>
       </c>
     </row>
     <row r="490">
@@ -15140,14 +15140,14 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>BEST EPS_CS_12m</t>
+          <t>Operating Margin_TS_60m</t>
         </is>
       </c>
       <c r="G490" t="n">
-        <v>0.6902613223700719</v>
+        <v>0.471391504600893</v>
       </c>
       <c r="H490" t="n">
-        <v>0.6902613223700719</v>
+        <v>0.471391504600893</v>
       </c>
     </row>
     <row r="491">
@@ -15170,14 +15170,14 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Inflation_CS_12m</t>
+          <t>Currency 12_TS_60m</t>
         </is>
       </c>
       <c r="G491" t="n">
-        <v>0.6883735598619812</v>
+        <v>0.4679724292474178</v>
       </c>
       <c r="H491" t="n">
-        <v>0.6883735598619812</v>
+        <v>0.4679724292474178</v>
       </c>
     </row>
     <row r="492">
@@ -15200,14 +15200,14 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Shiller PE_TS_3m</t>
+          <t>Currency_TS_60m</t>
         </is>
       </c>
       <c r="G492" t="n">
-        <v>0.8168955956576175</v>
+        <v>0.43009364630634</v>
       </c>
       <c r="H492" t="n">
-        <v>0.8168955956576175</v>
+        <v>0.43009364630634</v>
       </c>
     </row>
     <row r="493">
@@ -15230,14 +15230,14 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Mcap Weights_TS_3m</t>
+          <t>Budget Def_CS_60m</t>
         </is>
       </c>
       <c r="G493" t="n">
-        <v>-0.7385005324949095</v>
+        <v>-0.3945622895434306</v>
       </c>
       <c r="H493" t="n">
-        <v>0.7385005324949095</v>
+        <v>0.3945622895434306</v>
       </c>
     </row>
     <row r="494">
@@ -15260,14 +15260,14 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>MCAP Adj_TS_3m</t>
+          <t>Currency 12_TS_60m</t>
         </is>
       </c>
       <c r="G494" t="n">
-        <v>-0.7211295377504425</v>
+        <v>0.3930825855228687</v>
       </c>
       <c r="H494" t="n">
-        <v>0.7211295377504425</v>
+        <v>0.3930825855228687</v>
       </c>
     </row>
     <row r="495">
@@ -15290,14 +15290,14 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>MCAP_TS_3m</t>
+          <t>Oil_CS_60m</t>
         </is>
       </c>
       <c r="G495" t="n">
-        <v>-0.7211295377504425</v>
+        <v>-0.3877872640737958</v>
       </c>
       <c r="H495" t="n">
-        <v>0.7211295377504425</v>
+        <v>0.3877872640737958</v>
       </c>
     </row>
     <row r="496">
@@ -15320,14 +15320,14 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Best Cash Flow_TS_3m</t>
+          <t>RSI14_TS_60m</t>
         </is>
       </c>
       <c r="G496" t="n">
-        <v>0.7154774514942595</v>
+        <v>0.3554298363277201</v>
       </c>
       <c r="H496" t="n">
-        <v>0.7154774514942595</v>
+        <v>0.3554298363277201</v>
       </c>
     </row>
     <row r="497">
@@ -15350,14 +15350,14 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Debt to EV_TS_3m</t>
+          <t>20 Day Vol_TS_60m</t>
         </is>
       </c>
       <c r="G497" t="n">
-        <v>0.7106758196725249</v>
+        <v>-0.346781159060281</v>
       </c>
       <c r="H497" t="n">
-        <v>0.7106758196725249</v>
+        <v>0.346781159060281</v>
       </c>
     </row>
     <row r="498">
@@ -15380,14 +15380,14 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>PX_LAST_TS_3m</t>
+          <t>120MA Signal_TS_60m</t>
         </is>
       </c>
       <c r="G498" t="n">
-        <v>-0.6967253369180079</v>
+        <v>-0.3245189788041565</v>
       </c>
       <c r="H498" t="n">
-        <v>0.6967253369180079</v>
+        <v>0.3245189788041565</v>
       </c>
     </row>
     <row r="499">
@@ -15410,14 +15410,14 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>BEST EPS_TS_3m</t>
+          <t>Currency Vol_TS_60m</t>
         </is>
       </c>
       <c r="G499" t="n">
-        <v>-0.692330103401224</v>
+        <v>0.3217969207644758</v>
       </c>
       <c r="H499" t="n">
-        <v>0.692330103401224</v>
+        <v>0.3217969207644758</v>
       </c>
     </row>
     <row r="500">
@@ -15440,14 +15440,14 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>RSI14_CS_3m</t>
+          <t>Best PBK_CS_60m</t>
         </is>
       </c>
       <c r="G500" t="n">
-        <v>0.6896699738105915</v>
+        <v>-0.3188368517550538</v>
       </c>
       <c r="H500" t="n">
-        <v>0.6896699738105915</v>
+        <v>0.3188368517550538</v>
       </c>
     </row>
     <row r="501">
@@ -15470,14 +15470,14 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Best Price Sales_TS_3m</t>
+          <t>P2P_CS_60m</t>
         </is>
       </c>
       <c r="G501" t="n">
-        <v>0.6876848208441051</v>
+        <v>0.3067765845739108</v>
       </c>
       <c r="H501" t="n">
-        <v>0.6876848208441051</v>
+        <v>0.3067765845739108</v>
       </c>
     </row>
   </sheetData>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-05-14 16:43:53</t>
+          <t>2025-05-15 18:03:06</t>
         </is>
       </c>
     </row>
